--- a/Document/InventoryProject_Tuan_Modified.xlsx
+++ b/Document/InventoryProject_Tuan_Modified.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10035" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10035" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="11" r:id="rId1"/>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="36">
     <font>
       <sz val="11"/>
@@ -1529,7 +1529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1646,6 +1646,89 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1733,34 +1816,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1790,36 +1861,6 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1832,12 +1873,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1845,48 +1882,17 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -2032,7 +2038,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2065,7 +2071,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2098,7 +2104,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2162,7 +2168,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2195,7 +2201,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2228,7 +2234,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2316,6 +2322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2350,6 +2357,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2525,7 +2533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -2978,44 +2986,44 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
       <c r="AS9" s="41"/>
       <c r="AT9" s="41"/>
       <c r="AU9" s="41"/>
@@ -3034,42 +3042,42 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
       <c r="AS10" s="41"/>
       <c r="AT10" s="41"/>
       <c r="AU10" s="41"/>
@@ -3088,42 +3096,42 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="46"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
       <c r="AS11" s="41"/>
       <c r="AT11" s="41"/>
       <c r="AU11" s="41"/>
@@ -3142,42 +3150,42 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
       <c r="AS12" s="41"/>
       <c r="AT12" s="41"/>
       <c r="AU12" s="41"/>
@@ -3196,42 +3204,42 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
       <c r="AS13" s="41"/>
       <c r="AT13" s="41"/>
       <c r="AU13" s="41"/>
@@ -3250,42 +3258,42 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
       <c r="AS14" s="41"/>
       <c r="AT14" s="41"/>
       <c r="AU14" s="41"/>
@@ -3304,42 +3312,42 @@
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="46"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="77"/>
+      <c r="AK15" s="77"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="77"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="77"/>
       <c r="AS15" s="41"/>
       <c r="AT15" s="41"/>
       <c r="AU15" s="41"/>
@@ -3358,42 +3366,42 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="77"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="77"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="77"/>
       <c r="AS16" s="41"/>
       <c r="AT16" s="41"/>
       <c r="AU16" s="41"/>
@@ -3412,42 +3420,42 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="77"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="77"/>
       <c r="AS17" s="41"/>
       <c r="AT17" s="41"/>
       <c r="AU17" s="41"/>
@@ -3466,42 +3474,42 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="46"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="77"/>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="77"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="77"/>
       <c r="AS18" s="41"/>
       <c r="AT18" s="41"/>
       <c r="AU18" s="41"/>
@@ -3520,42 +3528,42 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="46"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="77"/>
       <c r="AS19" s="41"/>
       <c r="AT19" s="41"/>
       <c r="AU19" s="41"/>
@@ -3574,42 +3582,42 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="46"/>
-      <c r="AN20" s="46"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="46"/>
-      <c r="AR20" s="46"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
       <c r="AS20" s="41"/>
       <c r="AT20" s="41"/>
       <c r="AU20" s="41"/>
@@ -3628,42 +3636,42 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
       <c r="AS21" s="31"/>
       <c r="AT21" s="31"/>
       <c r="AU21" s="31"/>
@@ -3682,42 +3690,42 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="46"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="46"/>
-      <c r="AN22" s="46"/>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="46"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="77"/>
       <c r="AS22" s="31"/>
       <c r="AT22" s="31"/>
       <c r="AU22" s="31"/>
@@ -4731,30 +4739,30 @@
       <c r="AC41" s="31"/>
       <c r="AD41" s="31"/>
       <c r="AE41" s="31"/>
-      <c r="AF41" s="42" t="s">
+      <c r="AF41" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="AG41" s="42"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="42"/>
-      <c r="AJ41" s="42"/>
-      <c r="AK41" s="42"/>
-      <c r="AL41" s="45" t="s">
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="73"/>
+      <c r="AJ41" s="73"/>
+      <c r="AK41" s="73"/>
+      <c r="AL41" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="AM41" s="45"/>
-      <c r="AN41" s="45"/>
-      <c r="AO41" s="45"/>
-      <c r="AP41" s="45"/>
-      <c r="AQ41" s="45"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
-      <c r="AT41" s="45"/>
-      <c r="AU41" s="45"/>
-      <c r="AV41" s="45"/>
-      <c r="AW41" s="45"/>
-      <c r="AX41" s="45"/>
-      <c r="AY41" s="45"/>
+      <c r="AM41" s="76"/>
+      <c r="AN41" s="76"/>
+      <c r="AO41" s="76"/>
+      <c r="AP41" s="76"/>
+      <c r="AQ41" s="76"/>
+      <c r="AR41" s="76"/>
+      <c r="AS41" s="76"/>
+      <c r="AT41" s="76"/>
+      <c r="AU41" s="76"/>
+      <c r="AV41" s="76"/>
+      <c r="AW41" s="76"/>
+      <c r="AX41" s="76"/>
+      <c r="AY41" s="76"/>
       <c r="AZ41" s="30"/>
     </row>
     <row r="42" spans="1:52">
@@ -4789,26 +4797,26 @@
       <c r="AC42" s="31"/>
       <c r="AD42" s="31"/>
       <c r="AE42" s="31"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="42"/>
-      <c r="AH42" s="42"/>
-      <c r="AI42" s="42"/>
-      <c r="AJ42" s="42"/>
-      <c r="AK42" s="42"/>
-      <c r="AL42" s="45"/>
-      <c r="AM42" s="45"/>
-      <c r="AN42" s="45"/>
-      <c r="AO42" s="45"/>
-      <c r="AP42" s="45"/>
-      <c r="AQ42" s="45"/>
-      <c r="AR42" s="45"/>
-      <c r="AS42" s="45"/>
-      <c r="AT42" s="45"/>
-      <c r="AU42" s="45"/>
-      <c r="AV42" s="45"/>
-      <c r="AW42" s="45"/>
-      <c r="AX42" s="45"/>
-      <c r="AY42" s="45"/>
+      <c r="AF42" s="73"/>
+      <c r="AG42" s="73"/>
+      <c r="AH42" s="73"/>
+      <c r="AI42" s="73"/>
+      <c r="AJ42" s="73"/>
+      <c r="AK42" s="73"/>
+      <c r="AL42" s="76"/>
+      <c r="AM42" s="76"/>
+      <c r="AN42" s="76"/>
+      <c r="AO42" s="76"/>
+      <c r="AP42" s="76"/>
+      <c r="AQ42" s="76"/>
+      <c r="AR42" s="76"/>
+      <c r="AS42" s="76"/>
+      <c r="AT42" s="76"/>
+      <c r="AU42" s="76"/>
+      <c r="AV42" s="76"/>
+      <c r="AW42" s="76"/>
+      <c r="AX42" s="76"/>
+      <c r="AY42" s="76"/>
       <c r="AZ42" s="30"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
@@ -4843,30 +4851,30 @@
       <c r="AC43" s="31"/>
       <c r="AD43" s="31"/>
       <c r="AE43" s="31"/>
-      <c r="AF43" s="42" t="s">
+      <c r="AF43" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="AG43" s="42"/>
-      <c r="AH43" s="42"/>
-      <c r="AI43" s="42"/>
-      <c r="AJ43" s="42"/>
-      <c r="AK43" s="42"/>
-      <c r="AL43" s="45" t="s">
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="73"/>
+      <c r="AI43" s="73"/>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="73"/>
+      <c r="AL43" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="AM43" s="45"/>
-      <c r="AN43" s="45"/>
-      <c r="AO43" s="45"/>
-      <c r="AP43" s="45"/>
-      <c r="AQ43" s="45"/>
-      <c r="AR43" s="45"/>
-      <c r="AS43" s="45"/>
-      <c r="AT43" s="45"/>
-      <c r="AU43" s="45"/>
-      <c r="AV43" s="45"/>
-      <c r="AW43" s="45"/>
-      <c r="AX43" s="45"/>
-      <c r="AY43" s="45"/>
+      <c r="AM43" s="76"/>
+      <c r="AN43" s="76"/>
+      <c r="AO43" s="76"/>
+      <c r="AP43" s="76"/>
+      <c r="AQ43" s="76"/>
+      <c r="AR43" s="76"/>
+      <c r="AS43" s="76"/>
+      <c r="AT43" s="76"/>
+      <c r="AU43" s="76"/>
+      <c r="AV43" s="76"/>
+      <c r="AW43" s="76"/>
+      <c r="AX43" s="76"/>
+      <c r="AY43" s="76"/>
       <c r="AZ43" s="30"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
@@ -4901,26 +4909,26 @@
       <c r="AC44" s="31"/>
       <c r="AD44" s="31"/>
       <c r="AE44" s="31"/>
-      <c r="AF44" s="42"/>
-      <c r="AG44" s="42"/>
-      <c r="AH44" s="42"/>
-      <c r="AI44" s="42"/>
-      <c r="AJ44" s="42"/>
-      <c r="AK44" s="42"/>
-      <c r="AL44" s="45"/>
-      <c r="AM44" s="45"/>
-      <c r="AN44" s="45"/>
-      <c r="AO44" s="45"/>
-      <c r="AP44" s="45"/>
-      <c r="AQ44" s="45"/>
-      <c r="AR44" s="45"/>
-      <c r="AS44" s="45"/>
-      <c r="AT44" s="45"/>
-      <c r="AU44" s="45"/>
-      <c r="AV44" s="45"/>
-      <c r="AW44" s="45"/>
-      <c r="AX44" s="45"/>
-      <c r="AY44" s="45"/>
+      <c r="AF44" s="73"/>
+      <c r="AG44" s="73"/>
+      <c r="AH44" s="73"/>
+      <c r="AI44" s="73"/>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="73"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
       <c r="AZ44" s="30"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
@@ -4955,30 +4963,30 @@
       <c r="AC45" s="31"/>
       <c r="AD45" s="31"/>
       <c r="AE45" s="31"/>
-      <c r="AF45" s="42" t="s">
+      <c r="AF45" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
-      <c r="AJ45" s="42"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="45" t="s">
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="73"/>
+      <c r="AL45" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="AM45" s="45"/>
-      <c r="AN45" s="45"/>
-      <c r="AO45" s="45"/>
-      <c r="AP45" s="45"/>
-      <c r="AQ45" s="45"/>
-      <c r="AR45" s="45"/>
-      <c r="AS45" s="45"/>
-      <c r="AT45" s="45"/>
-      <c r="AU45" s="45"/>
-      <c r="AV45" s="45"/>
-      <c r="AW45" s="45"/>
-      <c r="AX45" s="45"/>
-      <c r="AY45" s="45"/>
+      <c r="AM45" s="76"/>
+      <c r="AN45" s="76"/>
+      <c r="AO45" s="76"/>
+      <c r="AP45" s="76"/>
+      <c r="AQ45" s="76"/>
+      <c r="AR45" s="76"/>
+      <c r="AS45" s="76"/>
+      <c r="AT45" s="76"/>
+      <c r="AU45" s="76"/>
+      <c r="AV45" s="76"/>
+      <c r="AW45" s="76"/>
+      <c r="AX45" s="76"/>
+      <c r="AY45" s="76"/>
       <c r="AZ45" s="30"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -5013,26 +5021,26 @@
       <c r="AC46" s="31"/>
       <c r="AD46" s="31"/>
       <c r="AE46" s="31"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="42"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="45"/>
-      <c r="AM46" s="45"/>
-      <c r="AN46" s="45"/>
-      <c r="AO46" s="45"/>
-      <c r="AP46" s="45"/>
-      <c r="AQ46" s="45"/>
-      <c r="AR46" s="45"/>
-      <c r="AS46" s="45"/>
-      <c r="AT46" s="45"/>
-      <c r="AU46" s="45"/>
-      <c r="AV46" s="45"/>
-      <c r="AW46" s="45"/>
-      <c r="AX46" s="45"/>
-      <c r="AY46" s="45"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="73"/>
+      <c r="AH46" s="73"/>
+      <c r="AI46" s="73"/>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="73"/>
+      <c r="AL46" s="76"/>
+      <c r="AM46" s="76"/>
+      <c r="AN46" s="76"/>
+      <c r="AO46" s="76"/>
+      <c r="AP46" s="76"/>
+      <c r="AQ46" s="76"/>
+      <c r="AR46" s="76"/>
+      <c r="AS46" s="76"/>
+      <c r="AT46" s="76"/>
+      <c r="AU46" s="76"/>
+      <c r="AV46" s="76"/>
+      <c r="AW46" s="76"/>
+      <c r="AX46" s="76"/>
+      <c r="AY46" s="76"/>
       <c r="AZ46" s="30"/>
     </row>
     <row r="47" spans="1:52">
@@ -5067,30 +5075,30 @@
       <c r="AC47" s="31"/>
       <c r="AD47" s="31"/>
       <c r="AE47" s="31"/>
-      <c r="AF47" s="42" t="s">
+      <c r="AF47" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="43">
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="74">
         <v>42241</v>
       </c>
-      <c r="AM47" s="44"/>
-      <c r="AN47" s="44"/>
-      <c r="AO47" s="44"/>
-      <c r="AP47" s="44"/>
-      <c r="AQ47" s="44"/>
-      <c r="AR47" s="44"/>
-      <c r="AS47" s="44"/>
-      <c r="AT47" s="44"/>
-      <c r="AU47" s="44"/>
-      <c r="AV47" s="44"/>
-      <c r="AW47" s="44"/>
-      <c r="AX47" s="44"/>
-      <c r="AY47" s="44"/>
+      <c r="AM47" s="75"/>
+      <c r="AN47" s="75"/>
+      <c r="AO47" s="75"/>
+      <c r="AP47" s="75"/>
+      <c r="AQ47" s="75"/>
+      <c r="AR47" s="75"/>
+      <c r="AS47" s="75"/>
+      <c r="AT47" s="75"/>
+      <c r="AU47" s="75"/>
+      <c r="AV47" s="75"/>
+      <c r="AW47" s="75"/>
+      <c r="AX47" s="75"/>
+      <c r="AY47" s="75"/>
       <c r="AZ47" s="30"/>
     </row>
     <row r="48" spans="1:52">
@@ -5125,26 +5133,26 @@
       <c r="AC48" s="31"/>
       <c r="AD48" s="31"/>
       <c r="AE48" s="31"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
-      <c r="AP48" s="44"/>
-      <c r="AQ48" s="44"/>
-      <c r="AR48" s="44"/>
-      <c r="AS48" s="44"/>
-      <c r="AT48" s="44"/>
-      <c r="AU48" s="44"/>
-      <c r="AV48" s="44"/>
-      <c r="AW48" s="44"/>
-      <c r="AX48" s="44"/>
-      <c r="AY48" s="44"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="73"/>
+      <c r="AI48" s="73"/>
+      <c r="AJ48" s="73"/>
+      <c r="AK48" s="73"/>
+      <c r="AL48" s="75"/>
+      <c r="AM48" s="75"/>
+      <c r="AN48" s="75"/>
+      <c r="AO48" s="75"/>
+      <c r="AP48" s="75"/>
+      <c r="AQ48" s="75"/>
+      <c r="AR48" s="75"/>
+      <c r="AS48" s="75"/>
+      <c r="AT48" s="75"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="75"/>
+      <c r="AW48" s="75"/>
+      <c r="AX48" s="75"/>
+      <c r="AY48" s="75"/>
       <c r="AZ48" s="30"/>
     </row>
     <row r="49" spans="1:52">
@@ -5179,30 +5187,30 @@
       <c r="AC49" s="31"/>
       <c r="AD49" s="31"/>
       <c r="AE49" s="31"/>
-      <c r="AF49" s="42" t="s">
+      <c r="AF49" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="AG49" s="42"/>
-      <c r="AH49" s="42"/>
-      <c r="AI49" s="42"/>
-      <c r="AJ49" s="42"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="45" t="s">
+      <c r="AG49" s="73"/>
+      <c r="AH49" s="73"/>
+      <c r="AI49" s="73"/>
+      <c r="AJ49" s="73"/>
+      <c r="AK49" s="73"/>
+      <c r="AL49" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AM49" s="45"/>
-      <c r="AN49" s="45"/>
-      <c r="AO49" s="45"/>
-      <c r="AP49" s="45"/>
-      <c r="AQ49" s="45"/>
-      <c r="AR49" s="45"/>
-      <c r="AS49" s="45"/>
-      <c r="AT49" s="45"/>
-      <c r="AU49" s="45"/>
-      <c r="AV49" s="45"/>
-      <c r="AW49" s="45"/>
-      <c r="AX49" s="45"/>
-      <c r="AY49" s="45"/>
+      <c r="AM49" s="76"/>
+      <c r="AN49" s="76"/>
+      <c r="AO49" s="76"/>
+      <c r="AP49" s="76"/>
+      <c r="AQ49" s="76"/>
+      <c r="AR49" s="76"/>
+      <c r="AS49" s="76"/>
+      <c r="AT49" s="76"/>
+      <c r="AU49" s="76"/>
+      <c r="AV49" s="76"/>
+      <c r="AW49" s="76"/>
+      <c r="AX49" s="76"/>
+      <c r="AY49" s="76"/>
       <c r="AZ49" s="30"/>
     </row>
     <row r="50" spans="1:52">
@@ -5237,26 +5245,26 @@
       <c r="AC50" s="31"/>
       <c r="AD50" s="31"/>
       <c r="AE50" s="31"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="42"/>
-      <c r="AI50" s="42"/>
-      <c r="AJ50" s="42"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="45"/>
-      <c r="AN50" s="45"/>
-      <c r="AO50" s="45"/>
-      <c r="AP50" s="45"/>
-      <c r="AQ50" s="45"/>
-      <c r="AR50" s="45"/>
-      <c r="AS50" s="45"/>
-      <c r="AT50" s="45"/>
-      <c r="AU50" s="45"/>
-      <c r="AV50" s="45"/>
-      <c r="AW50" s="45"/>
-      <c r="AX50" s="45"/>
-      <c r="AY50" s="45"/>
+      <c r="AF50" s="73"/>
+      <c r="AG50" s="73"/>
+      <c r="AH50" s="73"/>
+      <c r="AI50" s="73"/>
+      <c r="AJ50" s="73"/>
+      <c r="AK50" s="73"/>
+      <c r="AL50" s="76"/>
+      <c r="AM50" s="76"/>
+      <c r="AN50" s="76"/>
+      <c r="AO50" s="76"/>
+      <c r="AP50" s="76"/>
+      <c r="AQ50" s="76"/>
+      <c r="AR50" s="76"/>
+      <c r="AS50" s="76"/>
+      <c r="AT50" s="76"/>
+      <c r="AU50" s="76"/>
+      <c r="AV50" s="76"/>
+      <c r="AW50" s="76"/>
+      <c r="AX50" s="76"/>
+      <c r="AY50" s="76"/>
       <c r="AZ50" s="30"/>
     </row>
     <row r="51" spans="1:52">
@@ -5388,10 +5396,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -6042,20 +6050,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6070,16 +6078,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6090,44 +6098,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -6160,12 +6168,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -6190,10 +6198,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -6317,181 +6325,181 @@
       <c r="M11" s="21"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:14" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="91">
+    <row r="12" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="52">
         <v>7</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="115" t="s">
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="117"/>
-    </row>
-    <row r="13" spans="1:14" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="91">
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="107"/>
+    </row>
+    <row r="13" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="52">
         <v>8</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="97"/>
-    </row>
-    <row r="14" spans="1:14" s="79" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="72">
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
+    </row>
+    <row r="14" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="43">
         <v>9</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74" t="s">
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="74"/>
-      <c r="K14" s="80" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="114"/>
-    </row>
-    <row r="15" spans="1:14" s="79" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="72">
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="104"/>
+    </row>
+    <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="43">
         <v>10</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74" t="s">
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="78"/>
-    </row>
-    <row r="16" spans="1:14" s="79" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="72">
+      <c r="J15" s="45"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
+    </row>
+    <row r="16" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="43">
         <v>11</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="78"/>
-    </row>
-    <row r="17" spans="1:14" s="79" customFormat="1" ht="15">
-      <c r="A17" s="72">
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
+    </row>
+    <row r="17" spans="1:14" s="50" customFormat="1" ht="15">
+      <c r="A17" s="43">
         <v>12</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="78"/>
-    </row>
-    <row r="18" spans="1:14" s="79" customFormat="1" ht="15">
-      <c r="A18" s="72">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
+    </row>
+    <row r="18" spans="1:14" s="50" customFormat="1" ht="15">
+      <c r="A18" s="43">
         <v>13</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="78"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
     </row>
     <row r="19" spans="1:14" ht="15">
       <c r="A19" s="16">
@@ -6545,59 +6553,59 @@
       <c r="M20" s="21"/>
       <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="1:14" s="98" customFormat="1">
-      <c r="A21" s="91">
+    <row r="21" spans="1:14" s="59" customFormat="1">
+      <c r="A21" s="52">
         <v>16</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="F21" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="93" t="s">
+      <c r="I21" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="93"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="97"/>
-    </row>
-    <row r="22" spans="1:14" s="98" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="91">
+      <c r="J21" s="54"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="58"/>
+    </row>
+    <row r="22" spans="1:14" s="59" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A22" s="52">
         <v>17</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="93" t="s">
+      <c r="F22" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="93"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="97"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
       <c r="A23" s="16">
@@ -6618,7 +6626,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="42" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6639,7 +6647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -7293,20 +7301,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7321,16 +7329,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7341,44 +7349,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -7411,12 +7419,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -7441,10 +7449,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -7465,8 +7473,8 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="120"/>
       <c r="M7" s="21"/>
       <c r="N7" s="22"/>
     </row>
@@ -7489,10 +7497,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="100" t="s">
+      <c r="K8" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="101"/>
+      <c r="L8" s="118"/>
       <c r="M8" s="21"/>
       <c r="N8" s="22"/>
     </row>
@@ -7539,36 +7547,36 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="100" t="s">
+      <c r="K10" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="125"/>
-    </row>
-    <row r="11" spans="1:14" s="98" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="91">
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="121"/>
+    </row>
+    <row r="11" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="52">
         <v>6</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="97"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1">
       <c r="A12" s="16">
@@ -7594,131 +7602,131 @@
       <c r="M12" s="21"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:14" s="79" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="72">
+    <row r="13" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="43">
         <v>8</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="81" t="s">
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
-    </row>
-    <row r="14" spans="1:14" s="79" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="72">
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="110"/>
+    </row>
+    <row r="14" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="43">
         <v>9</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
-    </row>
-    <row r="15" spans="1:14" s="79" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="72">
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="113"/>
+    </row>
+    <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="43">
         <v>10</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="89"/>
-    </row>
-    <row r="16" spans="1:14" s="79" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="72">
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="116"/>
+    </row>
+    <row r="16" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="43">
         <v>11</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="78"/>
-    </row>
-    <row r="17" spans="1:14" s="79" customFormat="1" ht="15">
-      <c r="A17" s="72">
+      <c r="J16" s="45"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
+    </row>
+    <row r="17" spans="1:14" s="50" customFormat="1" ht="15">
+      <c r="A17" s="43">
         <v>12</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="78"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" spans="1:14" ht="13.5" customHeight="1">
       <c r="A18" s="16">
@@ -7774,59 +7782,59 @@
       <c r="M19" s="21"/>
       <c r="N19" s="22"/>
     </row>
-    <row r="20" spans="1:14" s="98" customFormat="1">
-      <c r="A20" s="91">
+    <row r="20" spans="1:14" s="59" customFormat="1">
+      <c r="A20" s="52">
         <v>15</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="93" t="s">
+      <c r="I20" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="93"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
-    </row>
-    <row r="21" spans="1:14" s="98" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="91">
+      <c r="J20" s="54"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="58"/>
+    </row>
+    <row r="21" spans="1:14" s="59" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="52">
         <v>16</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="F21" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="93"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="97"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="16">
@@ -7847,32 +7855,32 @@
       <c r="N22" s="22"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="E26" s="90"/>
+      <c r="E26" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:N4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="K13:N15"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:N4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8527,20 +8535,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8555,16 +8563,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -8575,44 +8583,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -8645,12 +8653,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -8675,10 +8683,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -8885,7 +8893,7 @@
       <c r="N14" s="22"/>
     </row>
     <row r="18" spans="4:4" ht="54" customHeight="1">
-      <c r="D18" s="71"/>
+      <c r="D18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8902,11 +8910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8922,214 +8930,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105" t="s">
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="108"/>
-      <c r="C2" s="106" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="125" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="127" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="104"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="110" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="63" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="112"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="110" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="104"/>
-      <c r="C8" s="111" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="110" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="104"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="110" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="112"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="110" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="112"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="110" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="104"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9142,7 +9150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9795,20 +9803,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -9823,16 +9831,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -9843,44 +9851,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -9913,12 +9921,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -9943,10 +9951,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -10267,7 +10275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10920,20 +10928,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -10948,16 +10956,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -10968,44 +10976,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -11038,12 +11046,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -11068,10 +11076,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="23.25" customHeight="1">
       <c r="A7" s="16">
@@ -11342,7 +11350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11994,20 +12002,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -12022,16 +12030,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -12042,44 +12050,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -12112,12 +12120,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -12142,10 +12150,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -12442,7 +12450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13094,20 +13102,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -13122,16 +13130,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -13142,44 +13150,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -13212,12 +13220,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -13242,10 +13250,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -13517,7 +13525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14169,20 +14177,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -14197,16 +14205,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -14217,44 +14225,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -14287,12 +14295,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -14317,10 +14325,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -14661,7 +14669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -15317,20 +15325,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -15345,16 +15353,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -15365,44 +15373,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -15435,12 +15443,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -15465,10 +15473,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -15699,7 +15707,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="18" spans="4:4" ht="36" customHeight="1">
-      <c r="D18" s="71"/>
+      <c r="D18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15716,7 +15724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16369,20 +16377,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -16397,16 +16405,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -16417,44 +16425,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -16487,12 +16495,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -16517,10 +16525,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -16674,87 +16682,87 @@
       <c r="M12" s="21"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:14" s="124" customFormat="1" ht="15">
-      <c r="A13" s="118">
+    <row r="13" spans="1:14" s="72" customFormat="1" ht="15">
+      <c r="A13" s="66">
         <v>8</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120" t="s">
+      <c r="G13" s="68"/>
+      <c r="H13" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="120" t="s">
+      <c r="I13" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="123"/>
-    </row>
-    <row r="14" spans="1:14" s="124" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="118">
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71"/>
+    </row>
+    <row r="14" spans="1:14" s="72" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="66">
         <v>9</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120" t="s">
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-    </row>
-    <row r="15" spans="1:14" s="124" customFormat="1">
-      <c r="A15" s="118">
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="71"/>
+    </row>
+    <row r="15" spans="1:14" s="72" customFormat="1">
+      <c r="A15" s="66">
         <v>10</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120" t="s">
+      <c r="G15" s="68"/>
+      <c r="H15" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="120" t="s">
+      <c r="I15" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="120"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1">
       <c r="A16" s="16">
@@ -16815,7 +16823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17468,20 +17476,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -17496,16 +17504,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -17516,44 +17524,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="98"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -17586,12 +17594,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -17616,10 +17624,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -17773,113 +17781,113 @@
       <c r="M12" s="21"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:14" s="124" customFormat="1" ht="15">
-      <c r="A13" s="118">
+    <row r="13" spans="1:14" s="72" customFormat="1" ht="15">
+      <c r="A13" s="66">
         <v>8</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120" t="s">
+      <c r="G13" s="68"/>
+      <c r="H13" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="120" t="s">
+      <c r="I13" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="123"/>
-    </row>
-    <row r="14" spans="1:14" s="124" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="118">
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71"/>
+    </row>
+    <row r="14" spans="1:14" s="72" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="66">
         <v>9</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120" t="s">
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-    </row>
-    <row r="15" spans="1:14" s="124" customFormat="1">
-      <c r="A15" s="118">
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="71"/>
+    </row>
+    <row r="15" spans="1:14" s="72" customFormat="1">
+      <c r="A15" s="66">
         <v>10</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120" t="s">
+      <c r="G15" s="68"/>
+      <c r="H15" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="120" t="s">
+      <c r="I15" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="120"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
-    </row>
-    <row r="16" spans="1:14" s="124" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="118">
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
+    </row>
+    <row r="16" spans="1:14" s="72" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A16" s="66">
         <v>11</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="120" t="s">
+      <c r="E16" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="120" t="s">
+      <c r="F16" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120" t="s">
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="120"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="123"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="71"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1">
       <c r="A17" s="16">

--- a/Document/InventoryProject_Tuan_Modified.xlsx
+++ b/Document/InventoryProject_Tuan_Modified.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="209">
   <si>
     <t>No.</t>
   </si>
@@ -580,9 +580,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Tid</t>
   </si>
   <si>
     <t xml:space="preserve">Check Item </t>
@@ -1729,6 +1726,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1876,22 +1879,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2986,44 +2983,44 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="79"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="79"/>
       <c r="AS9" s="41"/>
       <c r="AT9" s="41"/>
       <c r="AU9" s="41"/>
@@ -3042,42 +3039,42 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
       <c r="AS10" s="41"/>
       <c r="AT10" s="41"/>
       <c r="AU10" s="41"/>
@@ -3096,42 +3093,42 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
       <c r="AS11" s="41"/>
       <c r="AT11" s="41"/>
       <c r="AU11" s="41"/>
@@ -3150,42 +3147,42 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
       <c r="AS12" s="41"/>
       <c r="AT12" s="41"/>
       <c r="AU12" s="41"/>
@@ -3204,42 +3201,42 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="79"/>
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="79"/>
       <c r="AS13" s="41"/>
       <c r="AT13" s="41"/>
       <c r="AU13" s="41"/>
@@ -3258,42 +3255,42 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="79"/>
+      <c r="AQ14" s="79"/>
+      <c r="AR14" s="79"/>
       <c r="AS14" s="41"/>
       <c r="AT14" s="41"/>
       <c r="AU14" s="41"/>
@@ -3312,42 +3309,42 @@
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="77"/>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="79"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="79"/>
       <c r="AS15" s="41"/>
       <c r="AT15" s="41"/>
       <c r="AU15" s="41"/>
@@ -3366,42 +3363,42 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="79"/>
+      <c r="AQ16" s="79"/>
+      <c r="AR16" s="79"/>
       <c r="AS16" s="41"/>
       <c r="AT16" s="41"/>
       <c r="AU16" s="41"/>
@@ -3420,42 +3417,42 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="77"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="79"/>
+      <c r="AP17" s="79"/>
+      <c r="AQ17" s="79"/>
+      <c r="AR17" s="79"/>
       <c r="AS17" s="41"/>
       <c r="AT17" s="41"/>
       <c r="AU17" s="41"/>
@@ -3474,42 +3471,42 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="77"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="79"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
       <c r="AS18" s="41"/>
       <c r="AT18" s="41"/>
       <c r="AU18" s="41"/>
@@ -3528,42 +3525,42 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="77"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="77"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="79"/>
+      <c r="AM19" s="79"/>
+      <c r="AN19" s="79"/>
+      <c r="AO19" s="79"/>
+      <c r="AP19" s="79"/>
+      <c r="AQ19" s="79"/>
+      <c r="AR19" s="79"/>
       <c r="AS19" s="41"/>
       <c r="AT19" s="41"/>
       <c r="AU19" s="41"/>
@@ -3582,42 +3579,42 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="79"/>
+      <c r="AM20" s="79"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="79"/>
+      <c r="AP20" s="79"/>
+      <c r="AQ20" s="79"/>
+      <c r="AR20" s="79"/>
       <c r="AS20" s="41"/>
       <c r="AT20" s="41"/>
       <c r="AU20" s="41"/>
@@ -3636,42 +3633,42 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="77"/>
-      <c r="AK21" s="77"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="77"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
       <c r="AS21" s="31"/>
       <c r="AT21" s="31"/>
       <c r="AU21" s="31"/>
@@ -3690,42 +3687,42 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
       <c r="AS22" s="31"/>
       <c r="AT22" s="31"/>
       <c r="AU22" s="31"/>
@@ -4739,30 +4736,30 @@
       <c r="AC41" s="31"/>
       <c r="AD41" s="31"/>
       <c r="AE41" s="31"/>
-      <c r="AF41" s="73" t="s">
+      <c r="AF41" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="73"/>
-      <c r="AK41" s="73"/>
-      <c r="AL41" s="76" t="s">
+      <c r="AG41" s="75"/>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="75"/>
+      <c r="AJ41" s="75"/>
+      <c r="AK41" s="75"/>
+      <c r="AL41" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="AM41" s="76"/>
-      <c r="AN41" s="76"/>
-      <c r="AO41" s="76"/>
-      <c r="AP41" s="76"/>
-      <c r="AQ41" s="76"/>
-      <c r="AR41" s="76"/>
-      <c r="AS41" s="76"/>
-      <c r="AT41" s="76"/>
-      <c r="AU41" s="76"/>
-      <c r="AV41" s="76"/>
-      <c r="AW41" s="76"/>
-      <c r="AX41" s="76"/>
-      <c r="AY41" s="76"/>
+      <c r="AM41" s="78"/>
+      <c r="AN41" s="78"/>
+      <c r="AO41" s="78"/>
+      <c r="AP41" s="78"/>
+      <c r="AQ41" s="78"/>
+      <c r="AR41" s="78"/>
+      <c r="AS41" s="78"/>
+      <c r="AT41" s="78"/>
+      <c r="AU41" s="78"/>
+      <c r="AV41" s="78"/>
+      <c r="AW41" s="78"/>
+      <c r="AX41" s="78"/>
+      <c r="AY41" s="78"/>
       <c r="AZ41" s="30"/>
     </row>
     <row r="42" spans="1:52">
@@ -4797,26 +4794,26 @@
       <c r="AC42" s="31"/>
       <c r="AD42" s="31"/>
       <c r="AE42" s="31"/>
-      <c r="AF42" s="73"/>
-      <c r="AG42" s="73"/>
-      <c r="AH42" s="73"/>
-      <c r="AI42" s="73"/>
-      <c r="AJ42" s="73"/>
-      <c r="AK42" s="73"/>
-      <c r="AL42" s="76"/>
-      <c r="AM42" s="76"/>
-      <c r="AN42" s="76"/>
-      <c r="AO42" s="76"/>
-      <c r="AP42" s="76"/>
-      <c r="AQ42" s="76"/>
-      <c r="AR42" s="76"/>
-      <c r="AS42" s="76"/>
-      <c r="AT42" s="76"/>
-      <c r="AU42" s="76"/>
-      <c r="AV42" s="76"/>
-      <c r="AW42" s="76"/>
-      <c r="AX42" s="76"/>
-      <c r="AY42" s="76"/>
+      <c r="AF42" s="75"/>
+      <c r="AG42" s="75"/>
+      <c r="AH42" s="75"/>
+      <c r="AI42" s="75"/>
+      <c r="AJ42" s="75"/>
+      <c r="AK42" s="75"/>
+      <c r="AL42" s="78"/>
+      <c r="AM42" s="78"/>
+      <c r="AN42" s="78"/>
+      <c r="AO42" s="78"/>
+      <c r="AP42" s="78"/>
+      <c r="AQ42" s="78"/>
+      <c r="AR42" s="78"/>
+      <c r="AS42" s="78"/>
+      <c r="AT42" s="78"/>
+      <c r="AU42" s="78"/>
+      <c r="AV42" s="78"/>
+      <c r="AW42" s="78"/>
+      <c r="AX42" s="78"/>
+      <c r="AY42" s="78"/>
       <c r="AZ42" s="30"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
@@ -4851,30 +4848,30 @@
       <c r="AC43" s="31"/>
       <c r="AD43" s="31"/>
       <c r="AE43" s="31"/>
-      <c r="AF43" s="73" t="s">
+      <c r="AF43" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="AG43" s="73"/>
-      <c r="AH43" s="73"/>
-      <c r="AI43" s="73"/>
-      <c r="AJ43" s="73"/>
-      <c r="AK43" s="73"/>
-      <c r="AL43" s="76" t="s">
+      <c r="AG43" s="75"/>
+      <c r="AH43" s="75"/>
+      <c r="AI43" s="75"/>
+      <c r="AJ43" s="75"/>
+      <c r="AK43" s="75"/>
+      <c r="AL43" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="AM43" s="76"/>
-      <c r="AN43" s="76"/>
-      <c r="AO43" s="76"/>
-      <c r="AP43" s="76"/>
-      <c r="AQ43" s="76"/>
-      <c r="AR43" s="76"/>
-      <c r="AS43" s="76"/>
-      <c r="AT43" s="76"/>
-      <c r="AU43" s="76"/>
-      <c r="AV43" s="76"/>
-      <c r="AW43" s="76"/>
-      <c r="AX43" s="76"/>
-      <c r="AY43" s="76"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="78"/>
+      <c r="AQ43" s="78"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="78"/>
+      <c r="AT43" s="78"/>
+      <c r="AU43" s="78"/>
+      <c r="AV43" s="78"/>
+      <c r="AW43" s="78"/>
+      <c r="AX43" s="78"/>
+      <c r="AY43" s="78"/>
       <c r="AZ43" s="30"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
@@ -4909,26 +4906,26 @@
       <c r="AC44" s="31"/>
       <c r="AD44" s="31"/>
       <c r="AE44" s="31"/>
-      <c r="AF44" s="73"/>
-      <c r="AG44" s="73"/>
-      <c r="AH44" s="73"/>
-      <c r="AI44" s="73"/>
-      <c r="AJ44" s="73"/>
-      <c r="AK44" s="73"/>
-      <c r="AL44" s="76"/>
-      <c r="AM44" s="76"/>
-      <c r="AN44" s="76"/>
-      <c r="AO44" s="76"/>
-      <c r="AP44" s="76"/>
-      <c r="AQ44" s="76"/>
-      <c r="AR44" s="76"/>
-      <c r="AS44" s="76"/>
-      <c r="AT44" s="76"/>
-      <c r="AU44" s="76"/>
-      <c r="AV44" s="76"/>
-      <c r="AW44" s="76"/>
-      <c r="AX44" s="76"/>
-      <c r="AY44" s="76"/>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="75"/>
+      <c r="AH44" s="75"/>
+      <c r="AI44" s="75"/>
+      <c r="AJ44" s="75"/>
+      <c r="AK44" s="75"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="78"/>
+      <c r="AO44" s="78"/>
+      <c r="AP44" s="78"/>
+      <c r="AQ44" s="78"/>
+      <c r="AR44" s="78"/>
+      <c r="AS44" s="78"/>
+      <c r="AT44" s="78"/>
+      <c r="AU44" s="78"/>
+      <c r="AV44" s="78"/>
+      <c r="AW44" s="78"/>
+      <c r="AX44" s="78"/>
+      <c r="AY44" s="78"/>
       <c r="AZ44" s="30"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
@@ -4963,30 +4960,30 @@
       <c r="AC45" s="31"/>
       <c r="AD45" s="31"/>
       <c r="AE45" s="31"/>
-      <c r="AF45" s="73" t="s">
+      <c r="AF45" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="AG45" s="73"/>
-      <c r="AH45" s="73"/>
-      <c r="AI45" s="73"/>
-      <c r="AJ45" s="73"/>
-      <c r="AK45" s="73"/>
-      <c r="AL45" s="76" t="s">
+      <c r="AG45" s="75"/>
+      <c r="AH45" s="75"/>
+      <c r="AI45" s="75"/>
+      <c r="AJ45" s="75"/>
+      <c r="AK45" s="75"/>
+      <c r="AL45" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="AM45" s="76"/>
-      <c r="AN45" s="76"/>
-      <c r="AO45" s="76"/>
-      <c r="AP45" s="76"/>
-      <c r="AQ45" s="76"/>
-      <c r="AR45" s="76"/>
-      <c r="AS45" s="76"/>
-      <c r="AT45" s="76"/>
-      <c r="AU45" s="76"/>
-      <c r="AV45" s="76"/>
-      <c r="AW45" s="76"/>
-      <c r="AX45" s="76"/>
-      <c r="AY45" s="76"/>
+      <c r="AM45" s="78"/>
+      <c r="AN45" s="78"/>
+      <c r="AO45" s="78"/>
+      <c r="AP45" s="78"/>
+      <c r="AQ45" s="78"/>
+      <c r="AR45" s="78"/>
+      <c r="AS45" s="78"/>
+      <c r="AT45" s="78"/>
+      <c r="AU45" s="78"/>
+      <c r="AV45" s="78"/>
+      <c r="AW45" s="78"/>
+      <c r="AX45" s="78"/>
+      <c r="AY45" s="78"/>
       <c r="AZ45" s="30"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -5021,26 +5018,26 @@
       <c r="AC46" s="31"/>
       <c r="AD46" s="31"/>
       <c r="AE46" s="31"/>
-      <c r="AF46" s="73"/>
-      <c r="AG46" s="73"/>
-      <c r="AH46" s="73"/>
-      <c r="AI46" s="73"/>
-      <c r="AJ46" s="73"/>
-      <c r="AK46" s="73"/>
-      <c r="AL46" s="76"/>
-      <c r="AM46" s="76"/>
-      <c r="AN46" s="76"/>
-      <c r="AO46" s="76"/>
-      <c r="AP46" s="76"/>
-      <c r="AQ46" s="76"/>
-      <c r="AR46" s="76"/>
-      <c r="AS46" s="76"/>
-      <c r="AT46" s="76"/>
-      <c r="AU46" s="76"/>
-      <c r="AV46" s="76"/>
-      <c r="AW46" s="76"/>
-      <c r="AX46" s="76"/>
-      <c r="AY46" s="76"/>
+      <c r="AF46" s="75"/>
+      <c r="AG46" s="75"/>
+      <c r="AH46" s="75"/>
+      <c r="AI46" s="75"/>
+      <c r="AJ46" s="75"/>
+      <c r="AK46" s="75"/>
+      <c r="AL46" s="78"/>
+      <c r="AM46" s="78"/>
+      <c r="AN46" s="78"/>
+      <c r="AO46" s="78"/>
+      <c r="AP46" s="78"/>
+      <c r="AQ46" s="78"/>
+      <c r="AR46" s="78"/>
+      <c r="AS46" s="78"/>
+      <c r="AT46" s="78"/>
+      <c r="AU46" s="78"/>
+      <c r="AV46" s="78"/>
+      <c r="AW46" s="78"/>
+      <c r="AX46" s="78"/>
+      <c r="AY46" s="78"/>
       <c r="AZ46" s="30"/>
     </row>
     <row r="47" spans="1:52">
@@ -5075,30 +5072,30 @@
       <c r="AC47" s="31"/>
       <c r="AD47" s="31"/>
       <c r="AE47" s="31"/>
-      <c r="AF47" s="73" t="s">
+      <c r="AF47" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="AG47" s="73"/>
-      <c r="AH47" s="73"/>
-      <c r="AI47" s="73"/>
-      <c r="AJ47" s="73"/>
-      <c r="AK47" s="73"/>
-      <c r="AL47" s="74">
+      <c r="AG47" s="75"/>
+      <c r="AH47" s="75"/>
+      <c r="AI47" s="75"/>
+      <c r="AJ47" s="75"/>
+      <c r="AK47" s="75"/>
+      <c r="AL47" s="76">
         <v>42241</v>
       </c>
-      <c r="AM47" s="75"/>
-      <c r="AN47" s="75"/>
-      <c r="AO47" s="75"/>
-      <c r="AP47" s="75"/>
-      <c r="AQ47" s="75"/>
-      <c r="AR47" s="75"/>
-      <c r="AS47" s="75"/>
-      <c r="AT47" s="75"/>
-      <c r="AU47" s="75"/>
-      <c r="AV47" s="75"/>
-      <c r="AW47" s="75"/>
-      <c r="AX47" s="75"/>
-      <c r="AY47" s="75"/>
+      <c r="AM47" s="77"/>
+      <c r="AN47" s="77"/>
+      <c r="AO47" s="77"/>
+      <c r="AP47" s="77"/>
+      <c r="AQ47" s="77"/>
+      <c r="AR47" s="77"/>
+      <c r="AS47" s="77"/>
+      <c r="AT47" s="77"/>
+      <c r="AU47" s="77"/>
+      <c r="AV47" s="77"/>
+      <c r="AW47" s="77"/>
+      <c r="AX47" s="77"/>
+      <c r="AY47" s="77"/>
       <c r="AZ47" s="30"/>
     </row>
     <row r="48" spans="1:52">
@@ -5133,26 +5130,26 @@
       <c r="AC48" s="31"/>
       <c r="AD48" s="31"/>
       <c r="AE48" s="31"/>
-      <c r="AF48" s="73"/>
-      <c r="AG48" s="73"/>
-      <c r="AH48" s="73"/>
-      <c r="AI48" s="73"/>
-      <c r="AJ48" s="73"/>
-      <c r="AK48" s="73"/>
-      <c r="AL48" s="75"/>
-      <c r="AM48" s="75"/>
-      <c r="AN48" s="75"/>
-      <c r="AO48" s="75"/>
-      <c r="AP48" s="75"/>
-      <c r="AQ48" s="75"/>
-      <c r="AR48" s="75"/>
-      <c r="AS48" s="75"/>
-      <c r="AT48" s="75"/>
-      <c r="AU48" s="75"/>
-      <c r="AV48" s="75"/>
-      <c r="AW48" s="75"/>
-      <c r="AX48" s="75"/>
-      <c r="AY48" s="75"/>
+      <c r="AF48" s="75"/>
+      <c r="AG48" s="75"/>
+      <c r="AH48" s="75"/>
+      <c r="AI48" s="75"/>
+      <c r="AJ48" s="75"/>
+      <c r="AK48" s="75"/>
+      <c r="AL48" s="77"/>
+      <c r="AM48" s="77"/>
+      <c r="AN48" s="77"/>
+      <c r="AO48" s="77"/>
+      <c r="AP48" s="77"/>
+      <c r="AQ48" s="77"/>
+      <c r="AR48" s="77"/>
+      <c r="AS48" s="77"/>
+      <c r="AT48" s="77"/>
+      <c r="AU48" s="77"/>
+      <c r="AV48" s="77"/>
+      <c r="AW48" s="77"/>
+      <c r="AX48" s="77"/>
+      <c r="AY48" s="77"/>
       <c r="AZ48" s="30"/>
     </row>
     <row r="49" spans="1:52">
@@ -5187,30 +5184,30 @@
       <c r="AC49" s="31"/>
       <c r="AD49" s="31"/>
       <c r="AE49" s="31"/>
-      <c r="AF49" s="73" t="s">
+      <c r="AF49" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="AG49" s="73"/>
-      <c r="AH49" s="73"/>
-      <c r="AI49" s="73"/>
-      <c r="AJ49" s="73"/>
-      <c r="AK49" s="73"/>
-      <c r="AL49" s="76" t="s">
+      <c r="AG49" s="75"/>
+      <c r="AH49" s="75"/>
+      <c r="AI49" s="75"/>
+      <c r="AJ49" s="75"/>
+      <c r="AK49" s="75"/>
+      <c r="AL49" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AM49" s="76"/>
-      <c r="AN49" s="76"/>
-      <c r="AO49" s="76"/>
-      <c r="AP49" s="76"/>
-      <c r="AQ49" s="76"/>
-      <c r="AR49" s="76"/>
-      <c r="AS49" s="76"/>
-      <c r="AT49" s="76"/>
-      <c r="AU49" s="76"/>
-      <c r="AV49" s="76"/>
-      <c r="AW49" s="76"/>
-      <c r="AX49" s="76"/>
-      <c r="AY49" s="76"/>
+      <c r="AM49" s="78"/>
+      <c r="AN49" s="78"/>
+      <c r="AO49" s="78"/>
+      <c r="AP49" s="78"/>
+      <c r="AQ49" s="78"/>
+      <c r="AR49" s="78"/>
+      <c r="AS49" s="78"/>
+      <c r="AT49" s="78"/>
+      <c r="AU49" s="78"/>
+      <c r="AV49" s="78"/>
+      <c r="AW49" s="78"/>
+      <c r="AX49" s="78"/>
+      <c r="AY49" s="78"/>
       <c r="AZ49" s="30"/>
     </row>
     <row r="50" spans="1:52">
@@ -5245,26 +5242,26 @@
       <c r="AC50" s="31"/>
       <c r="AD50" s="31"/>
       <c r="AE50" s="31"/>
-      <c r="AF50" s="73"/>
-      <c r="AG50" s="73"/>
-      <c r="AH50" s="73"/>
-      <c r="AI50" s="73"/>
-      <c r="AJ50" s="73"/>
-      <c r="AK50" s="73"/>
-      <c r="AL50" s="76"/>
-      <c r="AM50" s="76"/>
-      <c r="AN50" s="76"/>
-      <c r="AO50" s="76"/>
-      <c r="AP50" s="76"/>
-      <c r="AQ50" s="76"/>
-      <c r="AR50" s="76"/>
-      <c r="AS50" s="76"/>
-      <c r="AT50" s="76"/>
-      <c r="AU50" s="76"/>
-      <c r="AV50" s="76"/>
-      <c r="AW50" s="76"/>
-      <c r="AX50" s="76"/>
-      <c r="AY50" s="76"/>
+      <c r="AF50" s="75"/>
+      <c r="AG50" s="75"/>
+      <c r="AH50" s="75"/>
+      <c r="AI50" s="75"/>
+      <c r="AJ50" s="75"/>
+      <c r="AK50" s="75"/>
+      <c r="AL50" s="78"/>
+      <c r="AM50" s="78"/>
+      <c r="AN50" s="78"/>
+      <c r="AO50" s="78"/>
+      <c r="AP50" s="78"/>
+      <c r="AQ50" s="78"/>
+      <c r="AR50" s="78"/>
+      <c r="AS50" s="78"/>
+      <c r="AT50" s="78"/>
+      <c r="AU50" s="78"/>
+      <c r="AV50" s="78"/>
+      <c r="AW50" s="78"/>
+      <c r="AX50" s="78"/>
+      <c r="AY50" s="78"/>
       <c r="AZ50" s="30"/>
     </row>
     <row r="51" spans="1:52">
@@ -6050,20 +6047,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6078,16 +6075,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6098,44 +6095,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -6168,12 +6165,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -6198,10 +6195,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -6344,12 +6341,12 @@
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107"/>
+      <c r="K12" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="109"/>
     </row>
     <row r="13" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="52">
@@ -6396,12 +6393,12 @@
         <v>6</v>
       </c>
       <c r="J14" s="45"/>
-      <c r="K14" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="104"/>
+      <c r="K14" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="106"/>
     </row>
     <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="43">
@@ -6627,7 +6624,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="D25" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7301,20 +7298,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7329,16 +7326,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7349,44 +7346,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -7419,12 +7416,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -7449,10 +7446,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -7473,8 +7470,8 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="21"/>
       <c r="N7" s="22"/>
     </row>
@@ -7497,10 +7494,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="117" t="s">
+      <c r="K8" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="118"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="21"/>
       <c r="N8" s="22"/>
     </row>
@@ -7547,12 +7544,12 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="117" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="121"/>
+      <c r="K10" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="123"/>
     </row>
     <row r="11" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="52">
@@ -7621,12 +7618,12 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="110"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
     </row>
     <row r="14" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="43">
@@ -7647,10 +7644,10 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="115"/>
     </row>
     <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="43">
@@ -7671,10 +7668,10 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="118"/>
     </row>
     <row r="16" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="43">
@@ -7863,17 +7860,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="F3:N4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8535,20 +8532,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8563,16 +8560,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -8583,44 +8580,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -8653,12 +8650,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -8683,10 +8680,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -8914,7 +8911,7 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8930,43 +8927,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="126" t="s">
         <v>179</v>
       </c>
       <c r="C1" s="124" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="126" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="F1" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="123"/>
-      <c r="C2" s="125" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="E2" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="F2" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>202</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="127" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="127" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="127" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -8979,11 +8976,9 @@
       <c r="D3" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="64" t="s">
-        <v>183</v>
-      </c>
+      <c r="E3" s="64"/>
       <c r="F3" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="62"/>
       <c r="H3" s="63"/>
@@ -9001,26 +8996,26 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="63" t="s">
         <v>190</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -9035,17 +9030,17 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="63"/>
@@ -9054,14 +9049,14 @@
     <row r="8" spans="2:9">
       <c r="B8" s="61"/>
       <c r="C8" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="63"/>
@@ -9079,15 +9074,15 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>198</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>199</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
       <c r="F10" s="63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
@@ -9099,7 +9094,7 @@
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
       <c r="F11" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
@@ -9117,13 +9112,13 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
       <c r="F13" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
@@ -9803,20 +9798,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -9831,16 +9826,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -9851,44 +9846,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -9921,12 +9916,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -9951,10 +9946,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -10928,20 +10923,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -10956,16 +10951,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -10976,44 +10971,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -11046,12 +11041,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -11076,10 +11071,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="23.25" customHeight="1">
       <c r="A7" s="16">
@@ -12002,20 +11997,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -12030,16 +12025,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -12050,44 +12045,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -12120,12 +12115,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -12150,10 +12145,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -13102,20 +13097,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -13130,16 +13125,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -13150,44 +13145,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -13220,12 +13215,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -13250,10 +13245,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -14177,20 +14172,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -14205,16 +14200,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -14225,44 +14220,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -14295,12 +14290,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -14325,10 +14320,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -15325,20 +15320,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -15353,16 +15348,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -15373,44 +15368,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -15443,12 +15438,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -15473,10 +15468,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -16377,20 +16372,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -16405,16 +16400,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -16425,44 +16420,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -16495,12 +16490,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -16525,10 +16520,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -17476,20 +17471,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -17504,16 +17499,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -17524,44 +17519,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -17594,12 +17589,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -17624,10 +17619,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">

--- a/Document/InventoryProject_Tuan_Modified.xlsx
+++ b/Document/InventoryProject_Tuan_Modified.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10035" firstSheet="6" activeTab="12"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="209">
   <si>
     <t>No.</t>
   </si>
@@ -576,15 +576,9 @@
     <t xml:space="preserve">Authorization : </t>
   </si>
   <si>
-    <t xml:space="preserve">UserID </t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Tid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check Item </t>
   </si>
   <si>
@@ -612,18 +606,12 @@
     <t>Amount of Deliverd</t>
   </si>
   <si>
-    <t xml:space="preserve">Time Check </t>
-  </si>
-  <si>
     <t xml:space="preserve">Transaction Master  Sync </t>
   </si>
   <si>
     <t xml:space="preserve">Transaction Detail  Sync </t>
   </si>
   <si>
-    <t>Time of Server</t>
-  </si>
-  <si>
     <t>Sync Data ( Clien -Server)</t>
   </si>
   <si>
@@ -661,12 +649,21 @@
   </si>
   <si>
     <t>* Không cần thiết với đối tượng và thời điểm này</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>List&lt;Item&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="36">
     <font>
       <sz val="11"/>
@@ -1729,6 +1726,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1876,22 +1879,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2038,7 +2035,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2071,7 +2068,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2104,7 +2101,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2168,7 +2165,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2201,7 +2198,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2234,7 +2231,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2322,7 +2319,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2357,7 +2353,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2533,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -2986,44 +2981,44 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="79"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="79"/>
       <c r="AS9" s="41"/>
       <c r="AT9" s="41"/>
       <c r="AU9" s="41"/>
@@ -3042,42 +3037,42 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
       <c r="AS10" s="41"/>
       <c r="AT10" s="41"/>
       <c r="AU10" s="41"/>
@@ -3096,42 +3091,42 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
       <c r="AS11" s="41"/>
       <c r="AT11" s="41"/>
       <c r="AU11" s="41"/>
@@ -3150,42 +3145,42 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="79"/>
       <c r="AS12" s="41"/>
       <c r="AT12" s="41"/>
       <c r="AU12" s="41"/>
@@ -3204,42 +3199,42 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="79"/>
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="79"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="79"/>
       <c r="AS13" s="41"/>
       <c r="AT13" s="41"/>
       <c r="AU13" s="41"/>
@@ -3258,42 +3253,42 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="79"/>
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="79"/>
+      <c r="AP14" s="79"/>
+      <c r="AQ14" s="79"/>
+      <c r="AR14" s="79"/>
       <c r="AS14" s="41"/>
       <c r="AT14" s="41"/>
       <c r="AU14" s="41"/>
@@ -3312,42 +3307,42 @@
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="77"/>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="79"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="79"/>
+      <c r="AP15" s="79"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="79"/>
       <c r="AS15" s="41"/>
       <c r="AT15" s="41"/>
       <c r="AU15" s="41"/>
@@ -3366,42 +3361,42 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="77"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="79"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="79"/>
+      <c r="AP16" s="79"/>
+      <c r="AQ16" s="79"/>
+      <c r="AR16" s="79"/>
       <c r="AS16" s="41"/>
       <c r="AT16" s="41"/>
       <c r="AU16" s="41"/>
@@ -3420,42 +3415,42 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="77"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="79"/>
+      <c r="AP17" s="79"/>
+      <c r="AQ17" s="79"/>
+      <c r="AR17" s="79"/>
       <c r="AS17" s="41"/>
       <c r="AT17" s="41"/>
       <c r="AU17" s="41"/>
@@ -3474,42 +3469,42 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="77"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="79"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
       <c r="AS18" s="41"/>
       <c r="AT18" s="41"/>
       <c r="AU18" s="41"/>
@@ -3528,42 +3523,42 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="77"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="77"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="79"/>
+      <c r="AM19" s="79"/>
+      <c r="AN19" s="79"/>
+      <c r="AO19" s="79"/>
+      <c r="AP19" s="79"/>
+      <c r="AQ19" s="79"/>
+      <c r="AR19" s="79"/>
       <c r="AS19" s="41"/>
       <c r="AT19" s="41"/>
       <c r="AU19" s="41"/>
@@ -3582,42 +3577,42 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="79"/>
+      <c r="AM20" s="79"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="79"/>
+      <c r="AP20" s="79"/>
+      <c r="AQ20" s="79"/>
+      <c r="AR20" s="79"/>
       <c r="AS20" s="41"/>
       <c r="AT20" s="41"/>
       <c r="AU20" s="41"/>
@@ -3636,42 +3631,42 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="77"/>
-      <c r="AK21" s="77"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="77"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
       <c r="AS21" s="31"/>
       <c r="AT21" s="31"/>
       <c r="AU21" s="31"/>
@@ -3690,42 +3685,42 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
       <c r="AS22" s="31"/>
       <c r="AT22" s="31"/>
       <c r="AU22" s="31"/>
@@ -4739,30 +4734,30 @@
       <c r="AC41" s="31"/>
       <c r="AD41" s="31"/>
       <c r="AE41" s="31"/>
-      <c r="AF41" s="73" t="s">
+      <c r="AF41" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="73"/>
-      <c r="AK41" s="73"/>
-      <c r="AL41" s="76" t="s">
+      <c r="AG41" s="75"/>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="75"/>
+      <c r="AJ41" s="75"/>
+      <c r="AK41" s="75"/>
+      <c r="AL41" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="AM41" s="76"/>
-      <c r="AN41" s="76"/>
-      <c r="AO41" s="76"/>
-      <c r="AP41" s="76"/>
-      <c r="AQ41" s="76"/>
-      <c r="AR41" s="76"/>
-      <c r="AS41" s="76"/>
-      <c r="AT41" s="76"/>
-      <c r="AU41" s="76"/>
-      <c r="AV41" s="76"/>
-      <c r="AW41" s="76"/>
-      <c r="AX41" s="76"/>
-      <c r="AY41" s="76"/>
+      <c r="AM41" s="78"/>
+      <c r="AN41" s="78"/>
+      <c r="AO41" s="78"/>
+      <c r="AP41" s="78"/>
+      <c r="AQ41" s="78"/>
+      <c r="AR41" s="78"/>
+      <c r="AS41" s="78"/>
+      <c r="AT41" s="78"/>
+      <c r="AU41" s="78"/>
+      <c r="AV41" s="78"/>
+      <c r="AW41" s="78"/>
+      <c r="AX41" s="78"/>
+      <c r="AY41" s="78"/>
       <c r="AZ41" s="30"/>
     </row>
     <row r="42" spans="1:52">
@@ -4797,26 +4792,26 @@
       <c r="AC42" s="31"/>
       <c r="AD42" s="31"/>
       <c r="AE42" s="31"/>
-      <c r="AF42" s="73"/>
-      <c r="AG42" s="73"/>
-      <c r="AH42" s="73"/>
-      <c r="AI42" s="73"/>
-      <c r="AJ42" s="73"/>
-      <c r="AK42" s="73"/>
-      <c r="AL42" s="76"/>
-      <c r="AM42" s="76"/>
-      <c r="AN42" s="76"/>
-      <c r="AO42" s="76"/>
-      <c r="AP42" s="76"/>
-      <c r="AQ42" s="76"/>
-      <c r="AR42" s="76"/>
-      <c r="AS42" s="76"/>
-      <c r="AT42" s="76"/>
-      <c r="AU42" s="76"/>
-      <c r="AV42" s="76"/>
-      <c r="AW42" s="76"/>
-      <c r="AX42" s="76"/>
-      <c r="AY42" s="76"/>
+      <c r="AF42" s="75"/>
+      <c r="AG42" s="75"/>
+      <c r="AH42" s="75"/>
+      <c r="AI42" s="75"/>
+      <c r="AJ42" s="75"/>
+      <c r="AK42" s="75"/>
+      <c r="AL42" s="78"/>
+      <c r="AM42" s="78"/>
+      <c r="AN42" s="78"/>
+      <c r="AO42" s="78"/>
+      <c r="AP42" s="78"/>
+      <c r="AQ42" s="78"/>
+      <c r="AR42" s="78"/>
+      <c r="AS42" s="78"/>
+      <c r="AT42" s="78"/>
+      <c r="AU42" s="78"/>
+      <c r="AV42" s="78"/>
+      <c r="AW42" s="78"/>
+      <c r="AX42" s="78"/>
+      <c r="AY42" s="78"/>
       <c r="AZ42" s="30"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
@@ -4851,30 +4846,30 @@
       <c r="AC43" s="31"/>
       <c r="AD43" s="31"/>
       <c r="AE43" s="31"/>
-      <c r="AF43" s="73" t="s">
+      <c r="AF43" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="AG43" s="73"/>
-      <c r="AH43" s="73"/>
-      <c r="AI43" s="73"/>
-      <c r="AJ43" s="73"/>
-      <c r="AK43" s="73"/>
-      <c r="AL43" s="76" t="s">
+      <c r="AG43" s="75"/>
+      <c r="AH43" s="75"/>
+      <c r="AI43" s="75"/>
+      <c r="AJ43" s="75"/>
+      <c r="AK43" s="75"/>
+      <c r="AL43" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="AM43" s="76"/>
-      <c r="AN43" s="76"/>
-      <c r="AO43" s="76"/>
-      <c r="AP43" s="76"/>
-      <c r="AQ43" s="76"/>
-      <c r="AR43" s="76"/>
-      <c r="AS43" s="76"/>
-      <c r="AT43" s="76"/>
-      <c r="AU43" s="76"/>
-      <c r="AV43" s="76"/>
-      <c r="AW43" s="76"/>
-      <c r="AX43" s="76"/>
-      <c r="AY43" s="76"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="78"/>
+      <c r="AQ43" s="78"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="78"/>
+      <c r="AT43" s="78"/>
+      <c r="AU43" s="78"/>
+      <c r="AV43" s="78"/>
+      <c r="AW43" s="78"/>
+      <c r="AX43" s="78"/>
+      <c r="AY43" s="78"/>
       <c r="AZ43" s="30"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
@@ -4909,26 +4904,26 @@
       <c r="AC44" s="31"/>
       <c r="AD44" s="31"/>
       <c r="AE44" s="31"/>
-      <c r="AF44" s="73"/>
-      <c r="AG44" s="73"/>
-      <c r="AH44" s="73"/>
-      <c r="AI44" s="73"/>
-      <c r="AJ44" s="73"/>
-      <c r="AK44" s="73"/>
-      <c r="AL44" s="76"/>
-      <c r="AM44" s="76"/>
-      <c r="AN44" s="76"/>
-      <c r="AO44" s="76"/>
-      <c r="AP44" s="76"/>
-      <c r="AQ44" s="76"/>
-      <c r="AR44" s="76"/>
-      <c r="AS44" s="76"/>
-      <c r="AT44" s="76"/>
-      <c r="AU44" s="76"/>
-      <c r="AV44" s="76"/>
-      <c r="AW44" s="76"/>
-      <c r="AX44" s="76"/>
-      <c r="AY44" s="76"/>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="75"/>
+      <c r="AH44" s="75"/>
+      <c r="AI44" s="75"/>
+      <c r="AJ44" s="75"/>
+      <c r="AK44" s="75"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="78"/>
+      <c r="AO44" s="78"/>
+      <c r="AP44" s="78"/>
+      <c r="AQ44" s="78"/>
+      <c r="AR44" s="78"/>
+      <c r="AS44" s="78"/>
+      <c r="AT44" s="78"/>
+      <c r="AU44" s="78"/>
+      <c r="AV44" s="78"/>
+      <c r="AW44" s="78"/>
+      <c r="AX44" s="78"/>
+      <c r="AY44" s="78"/>
       <c r="AZ44" s="30"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
@@ -4963,30 +4958,30 @@
       <c r="AC45" s="31"/>
       <c r="AD45" s="31"/>
       <c r="AE45" s="31"/>
-      <c r="AF45" s="73" t="s">
+      <c r="AF45" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="AG45" s="73"/>
-      <c r="AH45" s="73"/>
-      <c r="AI45" s="73"/>
-      <c r="AJ45" s="73"/>
-      <c r="AK45" s="73"/>
-      <c r="AL45" s="76" t="s">
+      <c r="AG45" s="75"/>
+      <c r="AH45" s="75"/>
+      <c r="AI45" s="75"/>
+      <c r="AJ45" s="75"/>
+      <c r="AK45" s="75"/>
+      <c r="AL45" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="AM45" s="76"/>
-      <c r="AN45" s="76"/>
-      <c r="AO45" s="76"/>
-      <c r="AP45" s="76"/>
-      <c r="AQ45" s="76"/>
-      <c r="AR45" s="76"/>
-      <c r="AS45" s="76"/>
-      <c r="AT45" s="76"/>
-      <c r="AU45" s="76"/>
-      <c r="AV45" s="76"/>
-      <c r="AW45" s="76"/>
-      <c r="AX45" s="76"/>
-      <c r="AY45" s="76"/>
+      <c r="AM45" s="78"/>
+      <c r="AN45" s="78"/>
+      <c r="AO45" s="78"/>
+      <c r="AP45" s="78"/>
+      <c r="AQ45" s="78"/>
+      <c r="AR45" s="78"/>
+      <c r="AS45" s="78"/>
+      <c r="AT45" s="78"/>
+      <c r="AU45" s="78"/>
+      <c r="AV45" s="78"/>
+      <c r="AW45" s="78"/>
+      <c r="AX45" s="78"/>
+      <c r="AY45" s="78"/>
       <c r="AZ45" s="30"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -5021,26 +5016,26 @@
       <c r="AC46" s="31"/>
       <c r="AD46" s="31"/>
       <c r="AE46" s="31"/>
-      <c r="AF46" s="73"/>
-      <c r="AG46" s="73"/>
-      <c r="AH46" s="73"/>
-      <c r="AI46" s="73"/>
-      <c r="AJ46" s="73"/>
-      <c r="AK46" s="73"/>
-      <c r="AL46" s="76"/>
-      <c r="AM46" s="76"/>
-      <c r="AN46" s="76"/>
-      <c r="AO46" s="76"/>
-      <c r="AP46" s="76"/>
-      <c r="AQ46" s="76"/>
-      <c r="AR46" s="76"/>
-      <c r="AS46" s="76"/>
-      <c r="AT46" s="76"/>
-      <c r="AU46" s="76"/>
-      <c r="AV46" s="76"/>
-      <c r="AW46" s="76"/>
-      <c r="AX46" s="76"/>
-      <c r="AY46" s="76"/>
+      <c r="AF46" s="75"/>
+      <c r="AG46" s="75"/>
+      <c r="AH46" s="75"/>
+      <c r="AI46" s="75"/>
+      <c r="AJ46" s="75"/>
+      <c r="AK46" s="75"/>
+      <c r="AL46" s="78"/>
+      <c r="AM46" s="78"/>
+      <c r="AN46" s="78"/>
+      <c r="AO46" s="78"/>
+      <c r="AP46" s="78"/>
+      <c r="AQ46" s="78"/>
+      <c r="AR46" s="78"/>
+      <c r="AS46" s="78"/>
+      <c r="AT46" s="78"/>
+      <c r="AU46" s="78"/>
+      <c r="AV46" s="78"/>
+      <c r="AW46" s="78"/>
+      <c r="AX46" s="78"/>
+      <c r="AY46" s="78"/>
       <c r="AZ46" s="30"/>
     </row>
     <row r="47" spans="1:52">
@@ -5075,30 +5070,30 @@
       <c r="AC47" s="31"/>
       <c r="AD47" s="31"/>
       <c r="AE47" s="31"/>
-      <c r="AF47" s="73" t="s">
+      <c r="AF47" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="AG47" s="73"/>
-      <c r="AH47" s="73"/>
-      <c r="AI47" s="73"/>
-      <c r="AJ47" s="73"/>
-      <c r="AK47" s="73"/>
-      <c r="AL47" s="74">
+      <c r="AG47" s="75"/>
+      <c r="AH47" s="75"/>
+      <c r="AI47" s="75"/>
+      <c r="AJ47" s="75"/>
+      <c r="AK47" s="75"/>
+      <c r="AL47" s="76">
         <v>42241</v>
       </c>
-      <c r="AM47" s="75"/>
-      <c r="AN47" s="75"/>
-      <c r="AO47" s="75"/>
-      <c r="AP47" s="75"/>
-      <c r="AQ47" s="75"/>
-      <c r="AR47" s="75"/>
-      <c r="AS47" s="75"/>
-      <c r="AT47" s="75"/>
-      <c r="AU47" s="75"/>
-      <c r="AV47" s="75"/>
-      <c r="AW47" s="75"/>
-      <c r="AX47" s="75"/>
-      <c r="AY47" s="75"/>
+      <c r="AM47" s="77"/>
+      <c r="AN47" s="77"/>
+      <c r="AO47" s="77"/>
+      <c r="AP47" s="77"/>
+      <c r="AQ47" s="77"/>
+      <c r="AR47" s="77"/>
+      <c r="AS47" s="77"/>
+      <c r="AT47" s="77"/>
+      <c r="AU47" s="77"/>
+      <c r="AV47" s="77"/>
+      <c r="AW47" s="77"/>
+      <c r="AX47" s="77"/>
+      <c r="AY47" s="77"/>
       <c r="AZ47" s="30"/>
     </row>
     <row r="48" spans="1:52">
@@ -5133,26 +5128,26 @@
       <c r="AC48" s="31"/>
       <c r="AD48" s="31"/>
       <c r="AE48" s="31"/>
-      <c r="AF48" s="73"/>
-      <c r="AG48" s="73"/>
-      <c r="AH48" s="73"/>
-      <c r="AI48" s="73"/>
-      <c r="AJ48" s="73"/>
-      <c r="AK48" s="73"/>
-      <c r="AL48" s="75"/>
-      <c r="AM48" s="75"/>
-      <c r="AN48" s="75"/>
-      <c r="AO48" s="75"/>
-      <c r="AP48" s="75"/>
-      <c r="AQ48" s="75"/>
-      <c r="AR48" s="75"/>
-      <c r="AS48" s="75"/>
-      <c r="AT48" s="75"/>
-      <c r="AU48" s="75"/>
-      <c r="AV48" s="75"/>
-      <c r="AW48" s="75"/>
-      <c r="AX48" s="75"/>
-      <c r="AY48" s="75"/>
+      <c r="AF48" s="75"/>
+      <c r="AG48" s="75"/>
+      <c r="AH48" s="75"/>
+      <c r="AI48" s="75"/>
+      <c r="AJ48" s="75"/>
+      <c r="AK48" s="75"/>
+      <c r="AL48" s="77"/>
+      <c r="AM48" s="77"/>
+      <c r="AN48" s="77"/>
+      <c r="AO48" s="77"/>
+      <c r="AP48" s="77"/>
+      <c r="AQ48" s="77"/>
+      <c r="AR48" s="77"/>
+      <c r="AS48" s="77"/>
+      <c r="AT48" s="77"/>
+      <c r="AU48" s="77"/>
+      <c r="AV48" s="77"/>
+      <c r="AW48" s="77"/>
+      <c r="AX48" s="77"/>
+      <c r="AY48" s="77"/>
       <c r="AZ48" s="30"/>
     </row>
     <row r="49" spans="1:52">
@@ -5187,30 +5182,30 @@
       <c r="AC49" s="31"/>
       <c r="AD49" s="31"/>
       <c r="AE49" s="31"/>
-      <c r="AF49" s="73" t="s">
+      <c r="AF49" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="AG49" s="73"/>
-      <c r="AH49" s="73"/>
-      <c r="AI49" s="73"/>
-      <c r="AJ49" s="73"/>
-      <c r="AK49" s="73"/>
-      <c r="AL49" s="76" t="s">
+      <c r="AG49" s="75"/>
+      <c r="AH49" s="75"/>
+      <c r="AI49" s="75"/>
+      <c r="AJ49" s="75"/>
+      <c r="AK49" s="75"/>
+      <c r="AL49" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AM49" s="76"/>
-      <c r="AN49" s="76"/>
-      <c r="AO49" s="76"/>
-      <c r="AP49" s="76"/>
-      <c r="AQ49" s="76"/>
-      <c r="AR49" s="76"/>
-      <c r="AS49" s="76"/>
-      <c r="AT49" s="76"/>
-      <c r="AU49" s="76"/>
-      <c r="AV49" s="76"/>
-      <c r="AW49" s="76"/>
-      <c r="AX49" s="76"/>
-      <c r="AY49" s="76"/>
+      <c r="AM49" s="78"/>
+      <c r="AN49" s="78"/>
+      <c r="AO49" s="78"/>
+      <c r="AP49" s="78"/>
+      <c r="AQ49" s="78"/>
+      <c r="AR49" s="78"/>
+      <c r="AS49" s="78"/>
+      <c r="AT49" s="78"/>
+      <c r="AU49" s="78"/>
+      <c r="AV49" s="78"/>
+      <c r="AW49" s="78"/>
+      <c r="AX49" s="78"/>
+      <c r="AY49" s="78"/>
       <c r="AZ49" s="30"/>
     </row>
     <row r="50" spans="1:52">
@@ -5245,26 +5240,26 @@
       <c r="AC50" s="31"/>
       <c r="AD50" s="31"/>
       <c r="AE50" s="31"/>
-      <c r="AF50" s="73"/>
-      <c r="AG50" s="73"/>
-      <c r="AH50" s="73"/>
-      <c r="AI50" s="73"/>
-      <c r="AJ50" s="73"/>
-      <c r="AK50" s="73"/>
-      <c r="AL50" s="76"/>
-      <c r="AM50" s="76"/>
-      <c r="AN50" s="76"/>
-      <c r="AO50" s="76"/>
-      <c r="AP50" s="76"/>
-      <c r="AQ50" s="76"/>
-      <c r="AR50" s="76"/>
-      <c r="AS50" s="76"/>
-      <c r="AT50" s="76"/>
-      <c r="AU50" s="76"/>
-      <c r="AV50" s="76"/>
-      <c r="AW50" s="76"/>
-      <c r="AX50" s="76"/>
-      <c r="AY50" s="76"/>
+      <c r="AF50" s="75"/>
+      <c r="AG50" s="75"/>
+      <c r="AH50" s="75"/>
+      <c r="AI50" s="75"/>
+      <c r="AJ50" s="75"/>
+      <c r="AK50" s="75"/>
+      <c r="AL50" s="78"/>
+      <c r="AM50" s="78"/>
+      <c r="AN50" s="78"/>
+      <c r="AO50" s="78"/>
+      <c r="AP50" s="78"/>
+      <c r="AQ50" s="78"/>
+      <c r="AR50" s="78"/>
+      <c r="AS50" s="78"/>
+      <c r="AT50" s="78"/>
+      <c r="AU50" s="78"/>
+      <c r="AV50" s="78"/>
+      <c r="AW50" s="78"/>
+      <c r="AX50" s="78"/>
+      <c r="AY50" s="78"/>
       <c r="AZ50" s="30"/>
     </row>
     <row r="51" spans="1:52">
@@ -5396,7 +5391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -6050,20 +6045,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6078,16 +6073,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6098,44 +6093,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -6168,12 +6163,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -6198,10 +6193,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -6344,12 +6339,12 @@
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107"/>
+      <c r="K12" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="109"/>
     </row>
     <row r="13" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="52">
@@ -6396,12 +6391,12 @@
         <v>6</v>
       </c>
       <c r="J14" s="45"/>
-      <c r="K14" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="104"/>
+      <c r="K14" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="106"/>
     </row>
     <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="43">
@@ -6627,7 +6622,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="D25" s="42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6647,7 +6642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -7301,20 +7296,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7329,16 +7324,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7349,44 +7344,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -7419,12 +7414,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -7449,10 +7444,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -7473,8 +7468,8 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="21"/>
       <c r="N7" s="22"/>
     </row>
@@ -7497,10 +7492,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="117" t="s">
+      <c r="K8" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="118"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="21"/>
       <c r="N8" s="22"/>
     </row>
@@ -7547,12 +7542,12 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="117" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="121"/>
+      <c r="K10" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="123"/>
     </row>
     <row r="11" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="52">
@@ -7621,12 +7616,12 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="110"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
     </row>
     <row r="14" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="43">
@@ -7647,10 +7642,10 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="115"/>
     </row>
     <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="43">
@@ -7671,10 +7666,10 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="118"/>
     </row>
     <row r="16" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="43">
@@ -7863,24 +7858,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="F3:N4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8535,20 +8530,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8563,16 +8558,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -8583,44 +8578,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -8653,12 +8648,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -8683,10 +8678,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -8910,11 +8905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8930,43 +8925,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="126" t="s">
         <v>179</v>
       </c>
       <c r="C1" s="124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="126" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="F1" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="123"/>
-      <c r="C2" s="125" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="125" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="125" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="127" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="127" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="127" t="s">
-        <v>203</v>
+      <c r="B2" s="127"/>
+      <c r="C2" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -8974,19 +8969,21 @@
         <v>180</v>
       </c>
       <c r="C3" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>183</v>
-      </c>
+      <c r="E3" s="64"/>
       <c r="F3" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
+        <v>185</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>206</v>
+      </c>
       <c r="I3" s="63"/>
     </row>
     <row r="4" spans="2:9">
@@ -9001,26 +8998,26 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>188</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>190</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="63" t="s">
         <v>189</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -9035,17 +9032,17 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="61" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="63"/>
@@ -9054,14 +9051,14 @@
     <row r="8" spans="2:9">
       <c r="B8" s="61"/>
       <c r="C8" s="64" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="63"/>
@@ -9079,15 +9076,17 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="64"/>
+        <v>195</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>206</v>
+      </c>
       <c r="E10" s="64"/>
       <c r="F10" s="63" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
@@ -9099,7 +9098,7 @@
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
       <c r="F11" s="63" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
@@ -9110,21 +9109,19 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="63"/>
+      <c r="F12" s="63" t="s">
+        <v>208</v>
+      </c>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B13" s="61" t="s">
-        <v>193</v>
-      </c>
+      <c r="B13" s="61"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
-      <c r="F13" s="63" t="s">
-        <v>196</v>
-      </c>
+      <c r="F13" s="63"/>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
@@ -9150,7 +9147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9803,20 +9800,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -9831,16 +9828,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -9851,44 +9848,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -9921,12 +9918,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -9951,10 +9948,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -10275,7 +10272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10928,20 +10925,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -10956,16 +10953,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -10976,44 +10973,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -11046,12 +11043,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -11076,10 +11073,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="23.25" customHeight="1">
       <c r="A7" s="16">
@@ -11350,7 +11347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12002,20 +11999,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -12030,16 +12027,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -12050,44 +12047,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -12120,12 +12117,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -12150,10 +12147,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -12450,7 +12447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13102,20 +13099,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -13130,16 +13127,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -13150,44 +13147,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -13220,12 +13217,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -13250,10 +13247,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -13525,7 +13522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14177,20 +14174,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -14205,16 +14202,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -14225,44 +14222,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -14295,12 +14292,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -14325,10 +14322,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -14669,7 +14666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -15325,20 +15322,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -15353,16 +15350,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -15373,44 +15370,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -15443,12 +15440,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -15473,10 +15470,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -15724,7 +15721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16377,20 +16374,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -16405,16 +16402,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -16425,44 +16422,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -16495,12 +16492,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -16525,10 +16522,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -16823,7 +16820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17476,20 +17473,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -17504,16 +17501,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -17524,44 +17521,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -17594,12 +17591,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -17624,10 +17621,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">

--- a/Document/InventoryProject_Tuan_Modified.xlsx
+++ b/Document/InventoryProject_Tuan_Modified.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10035" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10035" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="11" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Transaction Detail" sheetId="9" r:id="rId11"/>
     <sheet name="Transaction Type" sheetId="13" r:id="rId12"/>
     <sheet name="Mobile Api" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="209">
   <si>
     <t>No.</t>
   </si>
@@ -576,9 +577,6 @@
     <t xml:space="preserve">Authorization : </t>
   </si>
   <si>
-    <t xml:space="preserve">UserID </t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -609,18 +607,6 @@
     <t>Amount of Deliverd</t>
   </si>
   <si>
-    <t xml:space="preserve">Time Check </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transaction Master  Sync </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transaction Detail  Sync </t>
-  </si>
-  <si>
-    <t>Time of Server</t>
-  </si>
-  <si>
     <t>Sync Data ( Clien -Server)</t>
   </si>
   <si>
@@ -658,12 +644,27 @@
   </si>
   <si>
     <t>* Không cần thiết với đối tượng và thời điểm này</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Json String (1)</t>
+  </si>
+  <si>
+    <t>(1)Json Structure : {"TransactionMaster" :[transactionMaster entity] , "transactionDetailList" :[[transactionDetail entity],[transactionDetail entity],.....]}</t>
+  </si>
+  <si>
+    <t>List&lt;Item&gt;</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="36">
     <font>
       <sz val="11"/>
@@ -1526,7 +1527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1891,6 +1892,9 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="20% - アクセント 1" xfId="4"/>
@@ -2035,7 +2039,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2068,7 +2072,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2101,7 +2105,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2165,7 +2169,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2198,7 +2202,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2231,7 +2235,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2319,7 +2323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2354,7 +2357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2530,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -5393,7 +5395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -6342,7 +6344,7 @@
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
       <c r="K12" s="107" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L12" s="108"/>
       <c r="M12" s="108"/>
@@ -6394,7 +6396,7 @@
       </c>
       <c r="J14" s="45"/>
       <c r="K14" s="104" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L14" s="105"/>
       <c r="M14" s="105"/>
@@ -6624,7 +6626,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="D25" s="42" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6644,7 +6646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -7545,7 +7547,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="119" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L10" s="120"/>
       <c r="M10" s="120"/>
@@ -7860,24 +7862,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="F3:N4"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8907,11 +8909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8931,12 +8933,12 @@
         <v>179</v>
       </c>
       <c r="C1" s="124" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
       <c r="F1" s="125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G1" s="125"/>
       <c r="H1" s="125"/>
@@ -8945,25 +8947,25 @@
     <row r="2" spans="2:9">
       <c r="B2" s="127"/>
       <c r="C2" s="73" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G2" s="74" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I2" s="74" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -8971,16 +8973,18 @@
         <v>180</v>
       </c>
       <c r="C3" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="62"/>
+        <v>185</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>204</v>
+      </c>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
     </row>
@@ -8996,26 +9000,26 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="63" t="s">
         <v>189</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -9030,17 +9034,17 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="63"/>
@@ -9048,15 +9052,11 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="61"/>
-      <c r="C8" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>189</v>
-      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="64"/>
       <c r="F8" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="63"/>
@@ -9074,15 +9074,15 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="65" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
       <c r="F10" s="63" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
@@ -9090,11 +9090,13 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="65"/>
-      <c r="C11" s="64"/>
+      <c r="C11" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
       <c r="F11" s="63" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
@@ -9102,24 +9104,24 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="65"/>
-      <c r="C12" s="64"/>
+      <c r="C12" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="63"/>
+      <c r="F12" s="63" t="s">
+        <v>207</v>
+      </c>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B13" s="61" t="s">
-        <v>192</v>
-      </c>
+      <c r="B13" s="61"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
-      <c r="F13" s="63" t="s">
-        <v>195</v>
-      </c>
+      <c r="F13" s="63"/>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
@@ -9134,18 +9136,44 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
     </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="128" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10270,7 +10298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11345,7 +11373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12445,7 +12473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13520,7 +13548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14664,7 +14692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -15719,7 +15747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16818,7 +16846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Document/InventoryProject_Tuan_Modified.xlsx
+++ b/Document/InventoryProject_Tuan_Modified.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10035" firstSheet="7" activeTab="12"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="211">
   <si>
     <t>No.</t>
   </si>
@@ -574,15 +574,9 @@
     <t xml:space="preserve">Mobile Api </t>
   </si>
   <si>
-    <t xml:space="preserve">Authorization : </t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Item </t>
-  </si>
-  <si>
     <t xml:space="preserve">INPUT </t>
   </si>
   <si>
@@ -595,21 +589,6 @@
     <t xml:space="preserve">Barcode </t>
   </si>
   <si>
-    <t>BarCode</t>
-  </si>
-  <si>
-    <t>ID Delivered</t>
-  </si>
-  <si>
-    <t>Remain of Deliverd</t>
-  </si>
-  <si>
-    <t>Amount of Deliverd</t>
-  </si>
-  <si>
-    <t>Sync Data ( Clien -Server)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sync Data ( Server- Client) </t>
   </si>
   <si>
@@ -659,13 +638,40 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>Authorization (POST)</t>
+  </si>
+  <si>
+    <t>{"Status":"OK","UserID":"12"}</t>
+  </si>
+  <si>
+    <t>warehouseId</t>
+  </si>
+  <si>
+    <t>Check Item(GET)</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/SpringTemplateWeb/authorization/user</t>
+  </si>
+  <si>
+    <t>[{"itemId":1,"warehouseId":1,"receiptedQuantity":120,"issuedQuantity":15,"remainQuantity":105}]</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/SpringTemplateWeb/inventory/check/1/1</t>
+  </si>
+  <si>
+    <t>Sync Data ( Client -Server)</t>
+  </si>
+  <si>
+    <t>Inventory entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,8 +914,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,6 +1079,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,7 +1363,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1526,8 +1546,9 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1895,8 +1916,23 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="4" xfId="75" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="76">
     <cellStyle name="20% - アクセント 1" xfId="4"/>
     <cellStyle name="20% - アクセント 2" xfId="5"/>
     <cellStyle name="20% - アクセント 3" xfId="6"/>
@@ -1915,6 +1951,7 @@
     <cellStyle name="60% - アクセント 4" xfId="19"/>
     <cellStyle name="60% - アクセント 5" xfId="20"/>
     <cellStyle name="60% - アクセント 6" xfId="21"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
@@ -2039,7 +2076,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2072,7 +2109,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2105,7 +2142,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2169,7 +2206,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2202,7 +2239,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2235,7 +2272,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2323,6 +2360,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2357,6 +2395,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2532,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -5395,7 +5434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -6344,7 +6383,7 @@
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
       <c r="K12" s="107" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L12" s="108"/>
       <c r="M12" s="108"/>
@@ -6396,7 +6435,7 @@
       </c>
       <c r="J14" s="45"/>
       <c r="K14" s="104" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L14" s="105"/>
       <c r="M14" s="105"/>
@@ -6626,7 +6665,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="D25" s="42" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -7547,7 +7586,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="119" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L10" s="120"/>
       <c r="M10" s="120"/>
@@ -7862,24 +7901,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="F3:N4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8909,16 +8948,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
@@ -8933,12 +8972,12 @@
         <v>179</v>
       </c>
       <c r="C1" s="124" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
       <c r="F1" s="125" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G1" s="125"/>
       <c r="H1" s="125"/>
@@ -8947,219 +8986,247 @@
     <row r="2" spans="2:9">
       <c r="B2" s="127"/>
       <c r="C2" s="73" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G2" s="74" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I2" s="74" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>180</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>181</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="61"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>189</v>
-      </c>
+    <row r="4" spans="2:9" s="131" customFormat="1">
+      <c r="B4" s="129" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="133"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+    </row>
+    <row r="5" spans="2:9" s="131" customFormat="1">
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="65"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>204</v>
+      </c>
       <c r="E6" s="64"/>
-      <c r="F6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>210</v>
+      </c>
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="61"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+    <row r="7" spans="2:9" s="131" customFormat="1">
+      <c r="B7" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+    </row>
+    <row r="8" spans="2:9" s="131" customFormat="1">
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="61"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>197</v>
+      </c>
       <c r="E9" s="64"/>
-      <c r="F9" s="63"/>
+      <c r="F9" s="63" t="s">
+        <v>183</v>
+      </c>
       <c r="G9" s="63"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>193</v>
-      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
       <c r="F10" s="63" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="65"/>
-      <c r="C11" s="64" t="s">
-        <v>193</v>
-      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="63" t="s">
-        <v>198</v>
-      </c>
+      <c r="F11" s="63"/>
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="65"/>
+      <c r="B12" s="65" t="s">
+        <v>185</v>
+      </c>
       <c r="C12" s="64" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
       <c r="F12" s="63" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
     </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B13" s="61"/>
-      <c r="C13" s="64"/>
+    <row r="13" spans="2:9">
+      <c r="B13" s="65"/>
+      <c r="C13" s="64" t="s">
+        <v>186</v>
+      </c>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
-      <c r="F13" s="63"/>
+      <c r="F13" s="63" t="s">
+        <v>191</v>
+      </c>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="61"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="64" t="s">
+        <v>186</v>
+      </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="63"/>
+      <c r="F14" s="63" t="s">
+        <v>200</v>
+      </c>
       <c r="G14" s="63"/>
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="128" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B15" s="61"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="61"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9173,7 +9240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10298,7 +10365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11373,7 +11440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12473,7 +12540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13548,7 +13615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14692,7 +14759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -15747,7 +15814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16846,7 +16913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Document/InventoryProject_Tuan_Modified.xlsx
+++ b/Document/InventoryProject_Tuan_Modified.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="218">
   <si>
     <t>No.</t>
   </si>
@@ -589,12 +589,6 @@
     <t xml:space="preserve">Barcode </t>
   </si>
   <si>
-    <t xml:space="preserve">Sync Data ( Server- Client) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID Delivered </t>
-  </si>
-  <si>
     <t>Param 1</t>
   </si>
   <si>
@@ -661,17 +655,44 @@
     <t>http://localhost:8080/SpringTemplateWeb/inventory/check/1/1</t>
   </si>
   <si>
-    <t>Sync Data ( Client -Server)</t>
-  </si>
-  <si>
     <t>Inventory entity</t>
+  </si>
+  <si>
+    <t>Sync Data ( Client -Server) (POST)</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/SpringTemplateWeb/sync/transaction</t>
+  </si>
+  <si>
+    <t>getWarehouse(GET)</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/SpringTemplateWeb/sync/get/warehouse</t>
+  </si>
+  <si>
+    <t>getCategoryItem(GET)</t>
+  </si>
+  <si>
+    <t>[{"createUser":"Admin","createdDate":1440766914493,"updateDate":1440766914493,"updateUser":"Admin","categoryItemId":1,"categoryItemCode":"APPLE","categoryItemName":"APPLE","categoryItemParentId":null,"description":"APPLE","enabled":true,"features":"APPLE","nodeLevel":1,"specifications":"APPLE"},....]</t>
+  </si>
+  <si>
+    <t>getItem(GET)</t>
+  </si>
+  <si>
+    <t>[{"createUser":null,"createdDate":1441638992863,"updateDate":1441638992863,"updateUser":null,"itemId":1,"itemCode":"123456","itemName":"may tinh","features":null,"specifications":null,"unit":null,"categoryItem":null,"enabled":null,"description":null},{"createUser":null,"createdDate":1441639014377,"updateDate":1441639014377,"updateUser":null,"itemId":2,"itemCode":"123456789","itemName":"con chuot","features":null,"specifications":null,"unit":null,"categoryItem":null,"enabled":null,"description":null}]</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/SpringTemplateWeb/sync/get/item/warehouse/5</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/SpringTemplateWeb/sync/get/category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,8 +943,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,6 +1112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1581,7 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1754,6 +1787,15 @@
     <xf numFmtId="0" fontId="35" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="4" xfId="75" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1916,21 +1958,17 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="4" xfId="75" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="75" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="76">
     <cellStyle name="20% - アクセント 1" xfId="4"/>
@@ -3024,44 +3062,44 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="79"/>
-      <c r="AM9" s="79"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="79"/>
-      <c r="AP9" s="79"/>
-      <c r="AQ9" s="79"/>
-      <c r="AR9" s="79"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
       <c r="AS9" s="41"/>
       <c r="AT9" s="41"/>
       <c r="AU9" s="41"/>
@@ -3080,42 +3118,42 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
       <c r="AS10" s="41"/>
       <c r="AT10" s="41"/>
       <c r="AU10" s="41"/>
@@ -3134,42 +3172,42 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="79"/>
-      <c r="AM11" s="79"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="79"/>
-      <c r="AP11" s="79"/>
-      <c r="AQ11" s="79"/>
-      <c r="AR11" s="79"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
       <c r="AS11" s="41"/>
       <c r="AT11" s="41"/>
       <c r="AU11" s="41"/>
@@ -3188,42 +3226,42 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="79"/>
-      <c r="AN12" s="79"/>
-      <c r="AO12" s="79"/>
-      <c r="AP12" s="79"/>
-      <c r="AQ12" s="79"/>
-      <c r="AR12" s="79"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
       <c r="AS12" s="41"/>
       <c r="AT12" s="41"/>
       <c r="AU12" s="41"/>
@@ -3242,42 +3280,42 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="79"/>
-      <c r="AM13" s="79"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="79"/>
-      <c r="AP13" s="79"/>
-      <c r="AQ13" s="79"/>
-      <c r="AR13" s="79"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
       <c r="AS13" s="41"/>
       <c r="AT13" s="41"/>
       <c r="AU13" s="41"/>
@@ -3296,42 +3334,42 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="79"/>
-      <c r="AM14" s="79"/>
-      <c r="AN14" s="79"/>
-      <c r="AO14" s="79"/>
-      <c r="AP14" s="79"/>
-      <c r="AQ14" s="79"/>
-      <c r="AR14" s="79"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="84"/>
       <c r="AS14" s="41"/>
       <c r="AT14" s="41"/>
       <c r="AU14" s="41"/>
@@ -3350,42 +3388,42 @@
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="79"/>
-      <c r="AM15" s="79"/>
-      <c r="AN15" s="79"/>
-      <c r="AO15" s="79"/>
-      <c r="AP15" s="79"/>
-      <c r="AQ15" s="79"/>
-      <c r="AR15" s="79"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="84"/>
+      <c r="AK15" s="84"/>
+      <c r="AL15" s="84"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="84"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="84"/>
       <c r="AS15" s="41"/>
       <c r="AT15" s="41"/>
       <c r="AU15" s="41"/>
@@ -3404,42 +3442,42 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="79"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="79"/>
-      <c r="AQ16" s="79"/>
-      <c r="AR16" s="79"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="84"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="84"/>
+      <c r="AK16" s="84"/>
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="84"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="84"/>
       <c r="AS16" s="41"/>
       <c r="AT16" s="41"/>
       <c r="AU16" s="41"/>
@@ -3458,42 +3496,42 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="79"/>
-      <c r="AM17" s="79"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="79"/>
-      <c r="AP17" s="79"/>
-      <c r="AQ17" s="79"/>
-      <c r="AR17" s="79"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
+      <c r="AK17" s="84"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
       <c r="AS17" s="41"/>
       <c r="AT17" s="41"/>
       <c r="AU17" s="41"/>
@@ -3512,42 +3550,42 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
-      <c r="AR18" s="79"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="84"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
       <c r="AS18" s="41"/>
       <c r="AT18" s="41"/>
       <c r="AU18" s="41"/>
@@ -3566,42 +3604,42 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="79"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="79"/>
-      <c r="AP19" s="79"/>
-      <c r="AQ19" s="79"/>
-      <c r="AR19" s="79"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="84"/>
+      <c r="AH19" s="84"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="84"/>
+      <c r="AK19" s="84"/>
+      <c r="AL19" s="84"/>
+      <c r="AM19" s="84"/>
+      <c r="AN19" s="84"/>
+      <c r="AO19" s="84"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="84"/>
       <c r="AS19" s="41"/>
       <c r="AT19" s="41"/>
       <c r="AU19" s="41"/>
@@ -3620,42 +3658,42 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-      <c r="AP20" s="79"/>
-      <c r="AQ20" s="79"/>
-      <c r="AR20" s="79"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="84"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
       <c r="AS20" s="41"/>
       <c r="AT20" s="41"/>
       <c r="AU20" s="41"/>
@@ -3674,42 +3712,42 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="79"/>
-      <c r="AI21" s="79"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="79"/>
-      <c r="AL21" s="79"/>
-      <c r="AM21" s="79"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
-      <c r="AP21" s="79"/>
-      <c r="AQ21" s="79"/>
-      <c r="AR21" s="79"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="84"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
       <c r="AS21" s="31"/>
       <c r="AT21" s="31"/>
       <c r="AU21" s="31"/>
@@ -3728,42 +3766,42 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="79"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="79"/>
-      <c r="AP22" s="79"/>
-      <c r="AQ22" s="79"/>
-      <c r="AR22" s="79"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="84"/>
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="84"/>
+      <c r="AK22" s="84"/>
+      <c r="AL22" s="84"/>
+      <c r="AM22" s="84"/>
+      <c r="AN22" s="84"/>
+      <c r="AO22" s="84"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="84"/>
       <c r="AS22" s="31"/>
       <c r="AT22" s="31"/>
       <c r="AU22" s="31"/>
@@ -4777,30 +4815,30 @@
       <c r="AC41" s="31"/>
       <c r="AD41" s="31"/>
       <c r="AE41" s="31"/>
-      <c r="AF41" s="75" t="s">
+      <c r="AF41" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="AG41" s="75"/>
-      <c r="AH41" s="75"/>
-      <c r="AI41" s="75"/>
-      <c r="AJ41" s="75"/>
-      <c r="AK41" s="75"/>
-      <c r="AL41" s="78" t="s">
+      <c r="AG41" s="80"/>
+      <c r="AH41" s="80"/>
+      <c r="AI41" s="80"/>
+      <c r="AJ41" s="80"/>
+      <c r="AK41" s="80"/>
+      <c r="AL41" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="AM41" s="78"/>
-      <c r="AN41" s="78"/>
-      <c r="AO41" s="78"/>
-      <c r="AP41" s="78"/>
-      <c r="AQ41" s="78"/>
-      <c r="AR41" s="78"/>
-      <c r="AS41" s="78"/>
-      <c r="AT41" s="78"/>
-      <c r="AU41" s="78"/>
-      <c r="AV41" s="78"/>
-      <c r="AW41" s="78"/>
-      <c r="AX41" s="78"/>
-      <c r="AY41" s="78"/>
+      <c r="AM41" s="83"/>
+      <c r="AN41" s="83"/>
+      <c r="AO41" s="83"/>
+      <c r="AP41" s="83"/>
+      <c r="AQ41" s="83"/>
+      <c r="AR41" s="83"/>
+      <c r="AS41" s="83"/>
+      <c r="AT41" s="83"/>
+      <c r="AU41" s="83"/>
+      <c r="AV41" s="83"/>
+      <c r="AW41" s="83"/>
+      <c r="AX41" s="83"/>
+      <c r="AY41" s="83"/>
       <c r="AZ41" s="30"/>
     </row>
     <row r="42" spans="1:52">
@@ -4835,26 +4873,26 @@
       <c r="AC42" s="31"/>
       <c r="AD42" s="31"/>
       <c r="AE42" s="31"/>
-      <c r="AF42" s="75"/>
-      <c r="AG42" s="75"/>
-      <c r="AH42" s="75"/>
-      <c r="AI42" s="75"/>
-      <c r="AJ42" s="75"/>
-      <c r="AK42" s="75"/>
-      <c r="AL42" s="78"/>
-      <c r="AM42" s="78"/>
-      <c r="AN42" s="78"/>
-      <c r="AO42" s="78"/>
-      <c r="AP42" s="78"/>
-      <c r="AQ42" s="78"/>
-      <c r="AR42" s="78"/>
-      <c r="AS42" s="78"/>
-      <c r="AT42" s="78"/>
-      <c r="AU42" s="78"/>
-      <c r="AV42" s="78"/>
-      <c r="AW42" s="78"/>
-      <c r="AX42" s="78"/>
-      <c r="AY42" s="78"/>
+      <c r="AF42" s="80"/>
+      <c r="AG42" s="80"/>
+      <c r="AH42" s="80"/>
+      <c r="AI42" s="80"/>
+      <c r="AJ42" s="80"/>
+      <c r="AK42" s="80"/>
+      <c r="AL42" s="83"/>
+      <c r="AM42" s="83"/>
+      <c r="AN42" s="83"/>
+      <c r="AO42" s="83"/>
+      <c r="AP42" s="83"/>
+      <c r="AQ42" s="83"/>
+      <c r="AR42" s="83"/>
+      <c r="AS42" s="83"/>
+      <c r="AT42" s="83"/>
+      <c r="AU42" s="83"/>
+      <c r="AV42" s="83"/>
+      <c r="AW42" s="83"/>
+      <c r="AX42" s="83"/>
+      <c r="AY42" s="83"/>
       <c r="AZ42" s="30"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
@@ -4889,30 +4927,30 @@
       <c r="AC43" s="31"/>
       <c r="AD43" s="31"/>
       <c r="AE43" s="31"/>
-      <c r="AF43" s="75" t="s">
+      <c r="AF43" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="AG43" s="75"/>
-      <c r="AH43" s="75"/>
-      <c r="AI43" s="75"/>
-      <c r="AJ43" s="75"/>
-      <c r="AK43" s="75"/>
-      <c r="AL43" s="78" t="s">
+      <c r="AG43" s="80"/>
+      <c r="AH43" s="80"/>
+      <c r="AI43" s="80"/>
+      <c r="AJ43" s="80"/>
+      <c r="AK43" s="80"/>
+      <c r="AL43" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="AM43" s="78"/>
-      <c r="AN43" s="78"/>
-      <c r="AO43" s="78"/>
-      <c r="AP43" s="78"/>
-      <c r="AQ43" s="78"/>
-      <c r="AR43" s="78"/>
-      <c r="AS43" s="78"/>
-      <c r="AT43" s="78"/>
-      <c r="AU43" s="78"/>
-      <c r="AV43" s="78"/>
-      <c r="AW43" s="78"/>
-      <c r="AX43" s="78"/>
-      <c r="AY43" s="78"/>
+      <c r="AM43" s="83"/>
+      <c r="AN43" s="83"/>
+      <c r="AO43" s="83"/>
+      <c r="AP43" s="83"/>
+      <c r="AQ43" s="83"/>
+      <c r="AR43" s="83"/>
+      <c r="AS43" s="83"/>
+      <c r="AT43" s="83"/>
+      <c r="AU43" s="83"/>
+      <c r="AV43" s="83"/>
+      <c r="AW43" s="83"/>
+      <c r="AX43" s="83"/>
+      <c r="AY43" s="83"/>
       <c r="AZ43" s="30"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
@@ -4947,26 +4985,26 @@
       <c r="AC44" s="31"/>
       <c r="AD44" s="31"/>
       <c r="AE44" s="31"/>
-      <c r="AF44" s="75"/>
-      <c r="AG44" s="75"/>
-      <c r="AH44" s="75"/>
-      <c r="AI44" s="75"/>
-      <c r="AJ44" s="75"/>
-      <c r="AK44" s="75"/>
-      <c r="AL44" s="78"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="78"/>
-      <c r="AO44" s="78"/>
-      <c r="AP44" s="78"/>
-      <c r="AQ44" s="78"/>
-      <c r="AR44" s="78"/>
-      <c r="AS44" s="78"/>
-      <c r="AT44" s="78"/>
-      <c r="AU44" s="78"/>
-      <c r="AV44" s="78"/>
-      <c r="AW44" s="78"/>
-      <c r="AX44" s="78"/>
-      <c r="AY44" s="78"/>
+      <c r="AF44" s="80"/>
+      <c r="AG44" s="80"/>
+      <c r="AH44" s="80"/>
+      <c r="AI44" s="80"/>
+      <c r="AJ44" s="80"/>
+      <c r="AK44" s="80"/>
+      <c r="AL44" s="83"/>
+      <c r="AM44" s="83"/>
+      <c r="AN44" s="83"/>
+      <c r="AO44" s="83"/>
+      <c r="AP44" s="83"/>
+      <c r="AQ44" s="83"/>
+      <c r="AR44" s="83"/>
+      <c r="AS44" s="83"/>
+      <c r="AT44" s="83"/>
+      <c r="AU44" s="83"/>
+      <c r="AV44" s="83"/>
+      <c r="AW44" s="83"/>
+      <c r="AX44" s="83"/>
+      <c r="AY44" s="83"/>
       <c r="AZ44" s="30"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
@@ -5001,30 +5039,30 @@
       <c r="AC45" s="31"/>
       <c r="AD45" s="31"/>
       <c r="AE45" s="31"/>
-      <c r="AF45" s="75" t="s">
+      <c r="AF45" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="AG45" s="75"/>
-      <c r="AH45" s="75"/>
-      <c r="AI45" s="75"/>
-      <c r="AJ45" s="75"/>
-      <c r="AK45" s="75"/>
-      <c r="AL45" s="78" t="s">
+      <c r="AG45" s="80"/>
+      <c r="AH45" s="80"/>
+      <c r="AI45" s="80"/>
+      <c r="AJ45" s="80"/>
+      <c r="AK45" s="80"/>
+      <c r="AL45" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="AM45" s="78"/>
-      <c r="AN45" s="78"/>
-      <c r="AO45" s="78"/>
-      <c r="AP45" s="78"/>
-      <c r="AQ45" s="78"/>
-      <c r="AR45" s="78"/>
-      <c r="AS45" s="78"/>
-      <c r="AT45" s="78"/>
-      <c r="AU45" s="78"/>
-      <c r="AV45" s="78"/>
-      <c r="AW45" s="78"/>
-      <c r="AX45" s="78"/>
-      <c r="AY45" s="78"/>
+      <c r="AM45" s="83"/>
+      <c r="AN45" s="83"/>
+      <c r="AO45" s="83"/>
+      <c r="AP45" s="83"/>
+      <c r="AQ45" s="83"/>
+      <c r="AR45" s="83"/>
+      <c r="AS45" s="83"/>
+      <c r="AT45" s="83"/>
+      <c r="AU45" s="83"/>
+      <c r="AV45" s="83"/>
+      <c r="AW45" s="83"/>
+      <c r="AX45" s="83"/>
+      <c r="AY45" s="83"/>
       <c r="AZ45" s="30"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -5059,26 +5097,26 @@
       <c r="AC46" s="31"/>
       <c r="AD46" s="31"/>
       <c r="AE46" s="31"/>
-      <c r="AF46" s="75"/>
-      <c r="AG46" s="75"/>
-      <c r="AH46" s="75"/>
-      <c r="AI46" s="75"/>
-      <c r="AJ46" s="75"/>
-      <c r="AK46" s="75"/>
-      <c r="AL46" s="78"/>
-      <c r="AM46" s="78"/>
-      <c r="AN46" s="78"/>
-      <c r="AO46" s="78"/>
-      <c r="AP46" s="78"/>
-      <c r="AQ46" s="78"/>
-      <c r="AR46" s="78"/>
-      <c r="AS46" s="78"/>
-      <c r="AT46" s="78"/>
-      <c r="AU46" s="78"/>
-      <c r="AV46" s="78"/>
-      <c r="AW46" s="78"/>
-      <c r="AX46" s="78"/>
-      <c r="AY46" s="78"/>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="80"/>
+      <c r="AI46" s="80"/>
+      <c r="AJ46" s="80"/>
+      <c r="AK46" s="80"/>
+      <c r="AL46" s="83"/>
+      <c r="AM46" s="83"/>
+      <c r="AN46" s="83"/>
+      <c r="AO46" s="83"/>
+      <c r="AP46" s="83"/>
+      <c r="AQ46" s="83"/>
+      <c r="AR46" s="83"/>
+      <c r="AS46" s="83"/>
+      <c r="AT46" s="83"/>
+      <c r="AU46" s="83"/>
+      <c r="AV46" s="83"/>
+      <c r="AW46" s="83"/>
+      <c r="AX46" s="83"/>
+      <c r="AY46" s="83"/>
       <c r="AZ46" s="30"/>
     </row>
     <row r="47" spans="1:52">
@@ -5113,30 +5151,30 @@
       <c r="AC47" s="31"/>
       <c r="AD47" s="31"/>
       <c r="AE47" s="31"/>
-      <c r="AF47" s="75" t="s">
+      <c r="AF47" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="AG47" s="75"/>
-      <c r="AH47" s="75"/>
-      <c r="AI47" s="75"/>
-      <c r="AJ47" s="75"/>
-      <c r="AK47" s="75"/>
-      <c r="AL47" s="76">
+      <c r="AG47" s="80"/>
+      <c r="AH47" s="80"/>
+      <c r="AI47" s="80"/>
+      <c r="AJ47" s="80"/>
+      <c r="AK47" s="80"/>
+      <c r="AL47" s="81">
         <v>42241</v>
       </c>
-      <c r="AM47" s="77"/>
-      <c r="AN47" s="77"/>
-      <c r="AO47" s="77"/>
-      <c r="AP47" s="77"/>
-      <c r="AQ47" s="77"/>
-      <c r="AR47" s="77"/>
-      <c r="AS47" s="77"/>
-      <c r="AT47" s="77"/>
-      <c r="AU47" s="77"/>
-      <c r="AV47" s="77"/>
-      <c r="AW47" s="77"/>
-      <c r="AX47" s="77"/>
-      <c r="AY47" s="77"/>
+      <c r="AM47" s="82"/>
+      <c r="AN47" s="82"/>
+      <c r="AO47" s="82"/>
+      <c r="AP47" s="82"/>
+      <c r="AQ47" s="82"/>
+      <c r="AR47" s="82"/>
+      <c r="AS47" s="82"/>
+      <c r="AT47" s="82"/>
+      <c r="AU47" s="82"/>
+      <c r="AV47" s="82"/>
+      <c r="AW47" s="82"/>
+      <c r="AX47" s="82"/>
+      <c r="AY47" s="82"/>
       <c r="AZ47" s="30"/>
     </row>
     <row r="48" spans="1:52">
@@ -5171,26 +5209,26 @@
       <c r="AC48" s="31"/>
       <c r="AD48" s="31"/>
       <c r="AE48" s="31"/>
-      <c r="AF48" s="75"/>
-      <c r="AG48" s="75"/>
-      <c r="AH48" s="75"/>
-      <c r="AI48" s="75"/>
-      <c r="AJ48" s="75"/>
-      <c r="AK48" s="75"/>
-      <c r="AL48" s="77"/>
-      <c r="AM48" s="77"/>
-      <c r="AN48" s="77"/>
-      <c r="AO48" s="77"/>
-      <c r="AP48" s="77"/>
-      <c r="AQ48" s="77"/>
-      <c r="AR48" s="77"/>
-      <c r="AS48" s="77"/>
-      <c r="AT48" s="77"/>
-      <c r="AU48" s="77"/>
-      <c r="AV48" s="77"/>
-      <c r="AW48" s="77"/>
-      <c r="AX48" s="77"/>
-      <c r="AY48" s="77"/>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="80"/>
+      <c r="AH48" s="80"/>
+      <c r="AI48" s="80"/>
+      <c r="AJ48" s="80"/>
+      <c r="AK48" s="80"/>
+      <c r="AL48" s="82"/>
+      <c r="AM48" s="82"/>
+      <c r="AN48" s="82"/>
+      <c r="AO48" s="82"/>
+      <c r="AP48" s="82"/>
+      <c r="AQ48" s="82"/>
+      <c r="AR48" s="82"/>
+      <c r="AS48" s="82"/>
+      <c r="AT48" s="82"/>
+      <c r="AU48" s="82"/>
+      <c r="AV48" s="82"/>
+      <c r="AW48" s="82"/>
+      <c r="AX48" s="82"/>
+      <c r="AY48" s="82"/>
       <c r="AZ48" s="30"/>
     </row>
     <row r="49" spans="1:52">
@@ -5225,30 +5263,30 @@
       <c r="AC49" s="31"/>
       <c r="AD49" s="31"/>
       <c r="AE49" s="31"/>
-      <c r="AF49" s="75" t="s">
+      <c r="AF49" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="AG49" s="75"/>
-      <c r="AH49" s="75"/>
-      <c r="AI49" s="75"/>
-      <c r="AJ49" s="75"/>
-      <c r="AK49" s="75"/>
-      <c r="AL49" s="78" t="s">
+      <c r="AG49" s="80"/>
+      <c r="AH49" s="80"/>
+      <c r="AI49" s="80"/>
+      <c r="AJ49" s="80"/>
+      <c r="AK49" s="80"/>
+      <c r="AL49" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AM49" s="78"/>
-      <c r="AN49" s="78"/>
-      <c r="AO49" s="78"/>
-      <c r="AP49" s="78"/>
-      <c r="AQ49" s="78"/>
-      <c r="AR49" s="78"/>
-      <c r="AS49" s="78"/>
-      <c r="AT49" s="78"/>
-      <c r="AU49" s="78"/>
-      <c r="AV49" s="78"/>
-      <c r="AW49" s="78"/>
-      <c r="AX49" s="78"/>
-      <c r="AY49" s="78"/>
+      <c r="AM49" s="83"/>
+      <c r="AN49" s="83"/>
+      <c r="AO49" s="83"/>
+      <c r="AP49" s="83"/>
+      <c r="AQ49" s="83"/>
+      <c r="AR49" s="83"/>
+      <c r="AS49" s="83"/>
+      <c r="AT49" s="83"/>
+      <c r="AU49" s="83"/>
+      <c r="AV49" s="83"/>
+      <c r="AW49" s="83"/>
+      <c r="AX49" s="83"/>
+      <c r="AY49" s="83"/>
       <c r="AZ49" s="30"/>
     </row>
     <row r="50" spans="1:52">
@@ -5283,26 +5321,26 @@
       <c r="AC50" s="31"/>
       <c r="AD50" s="31"/>
       <c r="AE50" s="31"/>
-      <c r="AF50" s="75"/>
-      <c r="AG50" s="75"/>
-      <c r="AH50" s="75"/>
-      <c r="AI50" s="75"/>
-      <c r="AJ50" s="75"/>
-      <c r="AK50" s="75"/>
-      <c r="AL50" s="78"/>
-      <c r="AM50" s="78"/>
-      <c r="AN50" s="78"/>
-      <c r="AO50" s="78"/>
-      <c r="AP50" s="78"/>
-      <c r="AQ50" s="78"/>
-      <c r="AR50" s="78"/>
-      <c r="AS50" s="78"/>
-      <c r="AT50" s="78"/>
-      <c r="AU50" s="78"/>
-      <c r="AV50" s="78"/>
-      <c r="AW50" s="78"/>
-      <c r="AX50" s="78"/>
-      <c r="AY50" s="78"/>
+      <c r="AF50" s="80"/>
+      <c r="AG50" s="80"/>
+      <c r="AH50" s="80"/>
+      <c r="AI50" s="80"/>
+      <c r="AJ50" s="80"/>
+      <c r="AK50" s="80"/>
+      <c r="AL50" s="83"/>
+      <c r="AM50" s="83"/>
+      <c r="AN50" s="83"/>
+      <c r="AO50" s="83"/>
+      <c r="AP50" s="83"/>
+      <c r="AQ50" s="83"/>
+      <c r="AR50" s="83"/>
+      <c r="AS50" s="83"/>
+      <c r="AT50" s="83"/>
+      <c r="AU50" s="83"/>
+      <c r="AV50" s="83"/>
+      <c r="AW50" s="83"/>
+      <c r="AX50" s="83"/>
+      <c r="AY50" s="83"/>
       <c r="AZ50" s="30"/>
     </row>
     <row r="51" spans="1:52">
@@ -6088,20 +6126,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6116,16 +6154,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6136,44 +6174,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -6206,12 +6244,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -6236,10 +6274,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -6382,12 +6420,12 @@
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="109"/>
+      <c r="K12" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="52">
@@ -6434,12 +6472,12 @@
         <v>6</v>
       </c>
       <c r="J14" s="45"/>
-      <c r="K14" s="104" t="s">
-        <v>196</v>
-      </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="106"/>
+      <c r="K14" s="109" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="111"/>
     </row>
     <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="43">
@@ -6665,7 +6703,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="D25" s="42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7339,20 +7377,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7367,16 +7405,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7387,44 +7425,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -7457,12 +7495,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -7487,10 +7525,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -7511,8 +7549,8 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="21"/>
       <c r="N7" s="22"/>
     </row>
@@ -7535,10 +7573,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="119" t="s">
+      <c r="K8" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="120"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="21"/>
       <c r="N8" s="22"/>
     </row>
@@ -7585,12 +7623,12 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="119" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="123"/>
+      <c r="K10" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="128"/>
     </row>
     <row r="11" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="52">
@@ -7659,12 +7697,12 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="110" t="s">
+      <c r="K13" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="112"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="117"/>
     </row>
     <row r="14" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="43">
@@ -7685,10 +7723,10 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="115"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="120"/>
     </row>
     <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="43">
@@ -7709,10 +7747,10 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="118"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="123"/>
     </row>
     <row r="16" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="43">
@@ -7901,17 +7939,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="F3:N4"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8573,20 +8611,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8601,16 +8639,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -8621,44 +8659,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -8691,12 +8729,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -8721,10 +8759,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -8949,10 +8987,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8968,51 +9006,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="125" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="127"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="F2" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>188</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="74" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" s="64" t="s">
         <v>180</v>
@@ -9022,86 +9060,86 @@
         <v>183</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
     </row>
-    <row r="4" spans="2:9" s="131" customFormat="1">
-      <c r="B4" s="129" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="132" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="133"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-    </row>
-    <row r="5" spans="2:9" s="131" customFormat="1">
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
+    <row r="4" spans="2:9" s="77" customFormat="1">
+      <c r="B4" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="135"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="2:9" s="77" customFormat="1">
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="63" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
     </row>
-    <row r="7" spans="2:9" s="131" customFormat="1">
-      <c r="B7" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-    </row>
-    <row r="8" spans="2:9" s="131" customFormat="1">
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
+    <row r="7" spans="2:9" s="77" customFormat="1">
+      <c r="B7" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+    </row>
+    <row r="8" spans="2:9" s="77" customFormat="1">
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="63" t="s">
@@ -9112,116 +9150,170 @@
       <c r="I9" s="63"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="61"/>
+      <c r="B10" s="136" t="s">
+        <v>209</v>
+      </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="63" t="s">
-        <v>183</v>
-      </c>
+      <c r="F10" s="63"/>
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="61"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+    <row r="11" spans="2:9" s="77" customFormat="1">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>186</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
       <c r="F12" s="63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="65"/>
-      <c r="C13" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="65"/>
-      <c r="C14" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B15" s="61"/>
+    <row r="13" spans="2:9" s="77" customFormat="1">
+      <c r="B13" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+    </row>
+    <row r="14" spans="2:9" s="77" customFormat="1">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="65" t="s">
+        <v>212</v>
+      </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
-      <c r="F15" s="63"/>
+      <c r="F15" s="63" t="s">
+        <v>189</v>
+      </c>
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="61"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
+    <row r="16" spans="2:9" s="77" customFormat="1">
+      <c r="B16" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="2:9" s="77" customFormat="1">
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+    </row>
+    <row r="19" spans="2:9" s="77" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B19" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="2:9" s="77" customFormat="1">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B24:H24"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B19" r:id="rId5"/>
+    <hyperlink ref="B16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -9893,20 +9985,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -9921,16 +10013,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -9941,44 +10033,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -10011,12 +10103,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -10041,10 +10133,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -11018,20 +11110,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -11046,16 +11138,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -11066,44 +11158,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -11136,12 +11228,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -11166,10 +11258,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="23.25" customHeight="1">
       <c r="A7" s="16">
@@ -12092,20 +12184,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -12120,16 +12212,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -12140,44 +12232,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -12210,12 +12302,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -12240,10 +12332,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -13192,20 +13284,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -13220,16 +13312,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -13240,44 +13332,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -13310,12 +13402,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -13340,10 +13432,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -14267,20 +14359,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -14295,16 +14387,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -14315,44 +14407,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -14385,12 +14477,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -14415,10 +14507,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -15415,20 +15507,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -15443,16 +15535,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -15463,44 +15555,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -15533,12 +15625,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -15563,10 +15655,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -16467,20 +16559,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -16495,16 +16587,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -16515,44 +16607,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -16585,12 +16677,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -16615,10 +16707,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -17566,20 +17658,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="87" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -17594,16 +17686,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -17614,44 +17706,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -17684,12 +17776,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="103"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -17714,10 +17806,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">

--- a/Document/InventoryProject_Tuan_Modified.xlsx
+++ b/Document/InventoryProject_Tuan_Modified.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10035" firstSheet="7" activeTab="12"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="218">
   <si>
     <t>No.</t>
   </si>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="38">
     <font>
       <sz val="11"/>
@@ -1796,6 +1796,11 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="75" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1964,11 +1969,6 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="75" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="76">
     <cellStyle name="20% - アクセント 1" xfId="4"/>
@@ -2114,7 +2114,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2147,7 +2147,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2180,7 +2180,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2244,7 +2244,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2277,7 +2277,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2310,7 +2310,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:noFill/>
               </a14:hiddenFill>
             </a:ext>
@@ -2398,7 +2398,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2433,7 +2432,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2609,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -3062,44 +3060,44 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
       <c r="AS9" s="41"/>
       <c r="AT9" s="41"/>
       <c r="AU9" s="41"/>
@@ -3118,42 +3116,42 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
       <c r="AS10" s="41"/>
       <c r="AT10" s="41"/>
       <c r="AU10" s="41"/>
@@ -3172,42 +3170,42 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
       <c r="AS11" s="41"/>
       <c r="AT11" s="41"/>
       <c r="AU11" s="41"/>
@@ -3226,42 +3224,42 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
       <c r="AS12" s="41"/>
       <c r="AT12" s="41"/>
       <c r="AU12" s="41"/>
@@ -3280,42 +3278,42 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
       <c r="AS13" s="41"/>
       <c r="AT13" s="41"/>
       <c r="AU13" s="41"/>
@@ -3334,42 +3332,42 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="84"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
       <c r="AS14" s="41"/>
       <c r="AT14" s="41"/>
       <c r="AU14" s="41"/>
@@ -3388,42 +3386,42 @@
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="87"/>
       <c r="AS15" s="41"/>
       <c r="AT15" s="41"/>
       <c r="AU15" s="41"/>
@@ -3442,42 +3440,42 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="84"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
       <c r="AS16" s="41"/>
       <c r="AT16" s="41"/>
       <c r="AU16" s="41"/>
@@ -3496,42 +3494,42 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
       <c r="AS17" s="41"/>
       <c r="AT17" s="41"/>
       <c r="AU17" s="41"/>
@@ -3550,42 +3548,42 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="84"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="87"/>
       <c r="AS18" s="41"/>
       <c r="AT18" s="41"/>
       <c r="AU18" s="41"/>
@@ -3604,42 +3602,42 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="84"/>
-      <c r="AP19" s="84"/>
-      <c r="AQ19" s="84"/>
-      <c r="AR19" s="84"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="87"/>
       <c r="AS19" s="41"/>
       <c r="AT19" s="41"/>
       <c r="AU19" s="41"/>
@@ -3658,42 +3656,42 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="84"/>
-      <c r="AP20" s="84"/>
-      <c r="AQ20" s="84"/>
-      <c r="AR20" s="84"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="87"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="87"/>
+      <c r="AL20" s="87"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="87"/>
       <c r="AS20" s="41"/>
       <c r="AT20" s="41"/>
       <c r="AU20" s="41"/>
@@ -3712,42 +3710,42 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="84"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="84"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="87"/>
       <c r="AS21" s="31"/>
       <c r="AT21" s="31"/>
       <c r="AU21" s="31"/>
@@ -3766,42 +3764,42 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="84"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="84"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="87"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="87"/>
+      <c r="AM22" s="87"/>
+      <c r="AN22" s="87"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="87"/>
       <c r="AS22" s="31"/>
       <c r="AT22" s="31"/>
       <c r="AU22" s="31"/>
@@ -4815,30 +4813,30 @@
       <c r="AC41" s="31"/>
       <c r="AD41" s="31"/>
       <c r="AE41" s="31"/>
-      <c r="AF41" s="80" t="s">
+      <c r="AF41" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="AG41" s="80"/>
-      <c r="AH41" s="80"/>
-      <c r="AI41" s="80"/>
-      <c r="AJ41" s="80"/>
-      <c r="AK41" s="80"/>
-      <c r="AL41" s="83" t="s">
+      <c r="AG41" s="83"/>
+      <c r="AH41" s="83"/>
+      <c r="AI41" s="83"/>
+      <c r="AJ41" s="83"/>
+      <c r="AK41" s="83"/>
+      <c r="AL41" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AM41" s="83"/>
-      <c r="AN41" s="83"/>
-      <c r="AO41" s="83"/>
-      <c r="AP41" s="83"/>
-      <c r="AQ41" s="83"/>
-      <c r="AR41" s="83"/>
-      <c r="AS41" s="83"/>
-      <c r="AT41" s="83"/>
-      <c r="AU41" s="83"/>
-      <c r="AV41" s="83"/>
-      <c r="AW41" s="83"/>
-      <c r="AX41" s="83"/>
-      <c r="AY41" s="83"/>
+      <c r="AM41" s="86"/>
+      <c r="AN41" s="86"/>
+      <c r="AO41" s="86"/>
+      <c r="AP41" s="86"/>
+      <c r="AQ41" s="86"/>
+      <c r="AR41" s="86"/>
+      <c r="AS41" s="86"/>
+      <c r="AT41" s="86"/>
+      <c r="AU41" s="86"/>
+      <c r="AV41" s="86"/>
+      <c r="AW41" s="86"/>
+      <c r="AX41" s="86"/>
+      <c r="AY41" s="86"/>
       <c r="AZ41" s="30"/>
     </row>
     <row r="42" spans="1:52">
@@ -4873,26 +4871,26 @@
       <c r="AC42" s="31"/>
       <c r="AD42" s="31"/>
       <c r="AE42" s="31"/>
-      <c r="AF42" s="80"/>
-      <c r="AG42" s="80"/>
-      <c r="AH42" s="80"/>
-      <c r="AI42" s="80"/>
-      <c r="AJ42" s="80"/>
-      <c r="AK42" s="80"/>
-      <c r="AL42" s="83"/>
-      <c r="AM42" s="83"/>
-      <c r="AN42" s="83"/>
-      <c r="AO42" s="83"/>
-      <c r="AP42" s="83"/>
-      <c r="AQ42" s="83"/>
-      <c r="AR42" s="83"/>
-      <c r="AS42" s="83"/>
-      <c r="AT42" s="83"/>
-      <c r="AU42" s="83"/>
-      <c r="AV42" s="83"/>
-      <c r="AW42" s="83"/>
-      <c r="AX42" s="83"/>
-      <c r="AY42" s="83"/>
+      <c r="AF42" s="83"/>
+      <c r="AG42" s="83"/>
+      <c r="AH42" s="83"/>
+      <c r="AI42" s="83"/>
+      <c r="AJ42" s="83"/>
+      <c r="AK42" s="83"/>
+      <c r="AL42" s="86"/>
+      <c r="AM42" s="86"/>
+      <c r="AN42" s="86"/>
+      <c r="AO42" s="86"/>
+      <c r="AP42" s="86"/>
+      <c r="AQ42" s="86"/>
+      <c r="AR42" s="86"/>
+      <c r="AS42" s="86"/>
+      <c r="AT42" s="86"/>
+      <c r="AU42" s="86"/>
+      <c r="AV42" s="86"/>
+      <c r="AW42" s="86"/>
+      <c r="AX42" s="86"/>
+      <c r="AY42" s="86"/>
       <c r="AZ42" s="30"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
@@ -4927,30 +4925,30 @@
       <c r="AC43" s="31"/>
       <c r="AD43" s="31"/>
       <c r="AE43" s="31"/>
-      <c r="AF43" s="80" t="s">
+      <c r="AF43" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="AG43" s="80"/>
-      <c r="AH43" s="80"/>
-      <c r="AI43" s="80"/>
-      <c r="AJ43" s="80"/>
-      <c r="AK43" s="80"/>
-      <c r="AL43" s="83" t="s">
+      <c r="AG43" s="83"/>
+      <c r="AH43" s="83"/>
+      <c r="AI43" s="83"/>
+      <c r="AJ43" s="83"/>
+      <c r="AK43" s="83"/>
+      <c r="AL43" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="AM43" s="83"/>
-      <c r="AN43" s="83"/>
-      <c r="AO43" s="83"/>
-      <c r="AP43" s="83"/>
-      <c r="AQ43" s="83"/>
-      <c r="AR43" s="83"/>
-      <c r="AS43" s="83"/>
-      <c r="AT43" s="83"/>
-      <c r="AU43" s="83"/>
-      <c r="AV43" s="83"/>
-      <c r="AW43" s="83"/>
-      <c r="AX43" s="83"/>
-      <c r="AY43" s="83"/>
+      <c r="AM43" s="86"/>
+      <c r="AN43" s="86"/>
+      <c r="AO43" s="86"/>
+      <c r="AP43" s="86"/>
+      <c r="AQ43" s="86"/>
+      <c r="AR43" s="86"/>
+      <c r="AS43" s="86"/>
+      <c r="AT43" s="86"/>
+      <c r="AU43" s="86"/>
+      <c r="AV43" s="86"/>
+      <c r="AW43" s="86"/>
+      <c r="AX43" s="86"/>
+      <c r="AY43" s="86"/>
       <c r="AZ43" s="30"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
@@ -4985,26 +4983,26 @@
       <c r="AC44" s="31"/>
       <c r="AD44" s="31"/>
       <c r="AE44" s="31"/>
-      <c r="AF44" s="80"/>
-      <c r="AG44" s="80"/>
-      <c r="AH44" s="80"/>
-      <c r="AI44" s="80"/>
-      <c r="AJ44" s="80"/>
-      <c r="AK44" s="80"/>
-      <c r="AL44" s="83"/>
-      <c r="AM44" s="83"/>
-      <c r="AN44" s="83"/>
-      <c r="AO44" s="83"/>
-      <c r="AP44" s="83"/>
-      <c r="AQ44" s="83"/>
-      <c r="AR44" s="83"/>
-      <c r="AS44" s="83"/>
-      <c r="AT44" s="83"/>
-      <c r="AU44" s="83"/>
-      <c r="AV44" s="83"/>
-      <c r="AW44" s="83"/>
-      <c r="AX44" s="83"/>
-      <c r="AY44" s="83"/>
+      <c r="AF44" s="83"/>
+      <c r="AG44" s="83"/>
+      <c r="AH44" s="83"/>
+      <c r="AI44" s="83"/>
+      <c r="AJ44" s="83"/>
+      <c r="AK44" s="83"/>
+      <c r="AL44" s="86"/>
+      <c r="AM44" s="86"/>
+      <c r="AN44" s="86"/>
+      <c r="AO44" s="86"/>
+      <c r="AP44" s="86"/>
+      <c r="AQ44" s="86"/>
+      <c r="AR44" s="86"/>
+      <c r="AS44" s="86"/>
+      <c r="AT44" s="86"/>
+      <c r="AU44" s="86"/>
+      <c r="AV44" s="86"/>
+      <c r="AW44" s="86"/>
+      <c r="AX44" s="86"/>
+      <c r="AY44" s="86"/>
       <c r="AZ44" s="30"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
@@ -5039,30 +5037,30 @@
       <c r="AC45" s="31"/>
       <c r="AD45" s="31"/>
       <c r="AE45" s="31"/>
-      <c r="AF45" s="80" t="s">
+      <c r="AF45" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="AG45" s="80"/>
-      <c r="AH45" s="80"/>
-      <c r="AI45" s="80"/>
-      <c r="AJ45" s="80"/>
-      <c r="AK45" s="80"/>
-      <c r="AL45" s="83" t="s">
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="83"/>
+      <c r="AI45" s="83"/>
+      <c r="AJ45" s="83"/>
+      <c r="AK45" s="83"/>
+      <c r="AL45" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="AM45" s="83"/>
-      <c r="AN45" s="83"/>
-      <c r="AO45" s="83"/>
-      <c r="AP45" s="83"/>
-      <c r="AQ45" s="83"/>
-      <c r="AR45" s="83"/>
-      <c r="AS45" s="83"/>
-      <c r="AT45" s="83"/>
-      <c r="AU45" s="83"/>
-      <c r="AV45" s="83"/>
-      <c r="AW45" s="83"/>
-      <c r="AX45" s="83"/>
-      <c r="AY45" s="83"/>
+      <c r="AM45" s="86"/>
+      <c r="AN45" s="86"/>
+      <c r="AO45" s="86"/>
+      <c r="AP45" s="86"/>
+      <c r="AQ45" s="86"/>
+      <c r="AR45" s="86"/>
+      <c r="AS45" s="86"/>
+      <c r="AT45" s="86"/>
+      <c r="AU45" s="86"/>
+      <c r="AV45" s="86"/>
+      <c r="AW45" s="86"/>
+      <c r="AX45" s="86"/>
+      <c r="AY45" s="86"/>
       <c r="AZ45" s="30"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -5097,26 +5095,26 @@
       <c r="AC46" s="31"/>
       <c r="AD46" s="31"/>
       <c r="AE46" s="31"/>
-      <c r="AF46" s="80"/>
-      <c r="AG46" s="80"/>
-      <c r="AH46" s="80"/>
-      <c r="AI46" s="80"/>
-      <c r="AJ46" s="80"/>
-      <c r="AK46" s="80"/>
-      <c r="AL46" s="83"/>
-      <c r="AM46" s="83"/>
-      <c r="AN46" s="83"/>
-      <c r="AO46" s="83"/>
-      <c r="AP46" s="83"/>
-      <c r="AQ46" s="83"/>
-      <c r="AR46" s="83"/>
-      <c r="AS46" s="83"/>
-      <c r="AT46" s="83"/>
-      <c r="AU46" s="83"/>
-      <c r="AV46" s="83"/>
-      <c r="AW46" s="83"/>
-      <c r="AX46" s="83"/>
-      <c r="AY46" s="83"/>
+      <c r="AF46" s="83"/>
+      <c r="AG46" s="83"/>
+      <c r="AH46" s="83"/>
+      <c r="AI46" s="83"/>
+      <c r="AJ46" s="83"/>
+      <c r="AK46" s="83"/>
+      <c r="AL46" s="86"/>
+      <c r="AM46" s="86"/>
+      <c r="AN46" s="86"/>
+      <c r="AO46" s="86"/>
+      <c r="AP46" s="86"/>
+      <c r="AQ46" s="86"/>
+      <c r="AR46" s="86"/>
+      <c r="AS46" s="86"/>
+      <c r="AT46" s="86"/>
+      <c r="AU46" s="86"/>
+      <c r="AV46" s="86"/>
+      <c r="AW46" s="86"/>
+      <c r="AX46" s="86"/>
+      <c r="AY46" s="86"/>
       <c r="AZ46" s="30"/>
     </row>
     <row r="47" spans="1:52">
@@ -5151,30 +5149,30 @@
       <c r="AC47" s="31"/>
       <c r="AD47" s="31"/>
       <c r="AE47" s="31"/>
-      <c r="AF47" s="80" t="s">
+      <c r="AF47" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="AG47" s="80"/>
-      <c r="AH47" s="80"/>
-      <c r="AI47" s="80"/>
-      <c r="AJ47" s="80"/>
-      <c r="AK47" s="80"/>
-      <c r="AL47" s="81">
+      <c r="AG47" s="83"/>
+      <c r="AH47" s="83"/>
+      <c r="AI47" s="83"/>
+      <c r="AJ47" s="83"/>
+      <c r="AK47" s="83"/>
+      <c r="AL47" s="84">
         <v>42241</v>
       </c>
-      <c r="AM47" s="82"/>
-      <c r="AN47" s="82"/>
-      <c r="AO47" s="82"/>
-      <c r="AP47" s="82"/>
-      <c r="AQ47" s="82"/>
-      <c r="AR47" s="82"/>
-      <c r="AS47" s="82"/>
-      <c r="AT47" s="82"/>
-      <c r="AU47" s="82"/>
-      <c r="AV47" s="82"/>
-      <c r="AW47" s="82"/>
-      <c r="AX47" s="82"/>
-      <c r="AY47" s="82"/>
+      <c r="AM47" s="85"/>
+      <c r="AN47" s="85"/>
+      <c r="AO47" s="85"/>
+      <c r="AP47" s="85"/>
+      <c r="AQ47" s="85"/>
+      <c r="AR47" s="85"/>
+      <c r="AS47" s="85"/>
+      <c r="AT47" s="85"/>
+      <c r="AU47" s="85"/>
+      <c r="AV47" s="85"/>
+      <c r="AW47" s="85"/>
+      <c r="AX47" s="85"/>
+      <c r="AY47" s="85"/>
       <c r="AZ47" s="30"/>
     </row>
     <row r="48" spans="1:52">
@@ -5209,26 +5207,26 @@
       <c r="AC48" s="31"/>
       <c r="AD48" s="31"/>
       <c r="AE48" s="31"/>
-      <c r="AF48" s="80"/>
-      <c r="AG48" s="80"/>
-      <c r="AH48" s="80"/>
-      <c r="AI48" s="80"/>
-      <c r="AJ48" s="80"/>
-      <c r="AK48" s="80"/>
-      <c r="AL48" s="82"/>
-      <c r="AM48" s="82"/>
-      <c r="AN48" s="82"/>
-      <c r="AO48" s="82"/>
-      <c r="AP48" s="82"/>
-      <c r="AQ48" s="82"/>
-      <c r="AR48" s="82"/>
-      <c r="AS48" s="82"/>
-      <c r="AT48" s="82"/>
-      <c r="AU48" s="82"/>
-      <c r="AV48" s="82"/>
-      <c r="AW48" s="82"/>
-      <c r="AX48" s="82"/>
-      <c r="AY48" s="82"/>
+      <c r="AF48" s="83"/>
+      <c r="AG48" s="83"/>
+      <c r="AH48" s="83"/>
+      <c r="AI48" s="83"/>
+      <c r="AJ48" s="83"/>
+      <c r="AK48" s="83"/>
+      <c r="AL48" s="85"/>
+      <c r="AM48" s="85"/>
+      <c r="AN48" s="85"/>
+      <c r="AO48" s="85"/>
+      <c r="AP48" s="85"/>
+      <c r="AQ48" s="85"/>
+      <c r="AR48" s="85"/>
+      <c r="AS48" s="85"/>
+      <c r="AT48" s="85"/>
+      <c r="AU48" s="85"/>
+      <c r="AV48" s="85"/>
+      <c r="AW48" s="85"/>
+      <c r="AX48" s="85"/>
+      <c r="AY48" s="85"/>
       <c r="AZ48" s="30"/>
     </row>
     <row r="49" spans="1:52">
@@ -5263,30 +5261,30 @@
       <c r="AC49" s="31"/>
       <c r="AD49" s="31"/>
       <c r="AE49" s="31"/>
-      <c r="AF49" s="80" t="s">
+      <c r="AF49" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="AG49" s="80"/>
-      <c r="AH49" s="80"/>
-      <c r="AI49" s="80"/>
-      <c r="AJ49" s="80"/>
-      <c r="AK49" s="80"/>
-      <c r="AL49" s="83" t="s">
+      <c r="AG49" s="83"/>
+      <c r="AH49" s="83"/>
+      <c r="AI49" s="83"/>
+      <c r="AJ49" s="83"/>
+      <c r="AK49" s="83"/>
+      <c r="AL49" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AM49" s="83"/>
-      <c r="AN49" s="83"/>
-      <c r="AO49" s="83"/>
-      <c r="AP49" s="83"/>
-      <c r="AQ49" s="83"/>
-      <c r="AR49" s="83"/>
-      <c r="AS49" s="83"/>
-      <c r="AT49" s="83"/>
-      <c r="AU49" s="83"/>
-      <c r="AV49" s="83"/>
-      <c r="AW49" s="83"/>
-      <c r="AX49" s="83"/>
-      <c r="AY49" s="83"/>
+      <c r="AM49" s="86"/>
+      <c r="AN49" s="86"/>
+      <c r="AO49" s="86"/>
+      <c r="AP49" s="86"/>
+      <c r="AQ49" s="86"/>
+      <c r="AR49" s="86"/>
+      <c r="AS49" s="86"/>
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+      <c r="AV49" s="86"/>
+      <c r="AW49" s="86"/>
+      <c r="AX49" s="86"/>
+      <c r="AY49" s="86"/>
       <c r="AZ49" s="30"/>
     </row>
     <row r="50" spans="1:52">
@@ -5321,26 +5319,26 @@
       <c r="AC50" s="31"/>
       <c r="AD50" s="31"/>
       <c r="AE50" s="31"/>
-      <c r="AF50" s="80"/>
-      <c r="AG50" s="80"/>
-      <c r="AH50" s="80"/>
-      <c r="AI50" s="80"/>
-      <c r="AJ50" s="80"/>
-      <c r="AK50" s="80"/>
-      <c r="AL50" s="83"/>
-      <c r="AM50" s="83"/>
-      <c r="AN50" s="83"/>
-      <c r="AO50" s="83"/>
-      <c r="AP50" s="83"/>
-      <c r="AQ50" s="83"/>
-      <c r="AR50" s="83"/>
-      <c r="AS50" s="83"/>
-      <c r="AT50" s="83"/>
-      <c r="AU50" s="83"/>
-      <c r="AV50" s="83"/>
-      <c r="AW50" s="83"/>
-      <c r="AX50" s="83"/>
-      <c r="AY50" s="83"/>
+      <c r="AF50" s="83"/>
+      <c r="AG50" s="83"/>
+      <c r="AH50" s="83"/>
+      <c r="AI50" s="83"/>
+      <c r="AJ50" s="83"/>
+      <c r="AK50" s="83"/>
+      <c r="AL50" s="86"/>
+      <c r="AM50" s="86"/>
+      <c r="AN50" s="86"/>
+      <c r="AO50" s="86"/>
+      <c r="AP50" s="86"/>
+      <c r="AQ50" s="86"/>
+      <c r="AR50" s="86"/>
+      <c r="AS50" s="86"/>
+      <c r="AT50" s="86"/>
+      <c r="AU50" s="86"/>
+      <c r="AV50" s="86"/>
+      <c r="AW50" s="86"/>
+      <c r="AX50" s="86"/>
+      <c r="AY50" s="86"/>
       <c r="AZ50" s="30"/>
     </row>
     <row r="51" spans="1:52">
@@ -5472,7 +5470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -6126,20 +6124,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6154,16 +6152,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6174,44 +6172,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -6244,12 +6242,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -6274,10 +6272,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -6420,12 +6418,12 @@
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="112" t="s">
+      <c r="K12" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="114"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="117"/>
     </row>
     <row r="13" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="52">
@@ -6472,12 +6470,12 @@
         <v>6</v>
       </c>
       <c r="J14" s="45"/>
-      <c r="K14" s="109" t="s">
+      <c r="K14" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="111"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="114"/>
     </row>
     <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="43">
@@ -6723,7 +6721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -7377,20 +7375,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7405,16 +7403,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7425,44 +7423,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -7495,12 +7493,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -7525,10 +7523,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="16">
@@ -7549,8 +7547,8 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="130"/>
       <c r="M7" s="21"/>
       <c r="N7" s="22"/>
     </row>
@@ -7573,10 +7571,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="124" t="s">
+      <c r="K8" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="125"/>
+      <c r="L8" s="128"/>
       <c r="M8" s="21"/>
       <c r="N8" s="22"/>
     </row>
@@ -7623,12 +7621,12 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="124" t="s">
+      <c r="K10" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="131"/>
     </row>
     <row r="11" spans="1:14" s="59" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="52">
@@ -7697,12 +7695,12 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="117"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="43">
@@ -7723,10 +7721,10 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="120"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="123"/>
     </row>
     <row r="15" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="43">
@@ -7747,10 +7745,10 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="126"/>
     </row>
     <row r="16" spans="1:14" s="50" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="43">
@@ -7939,24 +7937,24 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="F3:N4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8611,20 +8609,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -8639,16 +8637,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -8659,44 +8657,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -8729,12 +8727,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -8759,10 +8757,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -8986,11 +8984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9006,23 +9004,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130" t="s">
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="132"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="73" t="s">
         <v>185</v>
       </c>
@@ -9072,10 +9070,10 @@
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
       <c r="E4" s="76"/>
-      <c r="F4" s="134" t="s">
+      <c r="F4" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="135"/>
+      <c r="G4" s="138"/>
       <c r="H4" s="76"/>
       <c r="I4" s="76"/>
     </row>
@@ -9138,9 +9136,7 @@
       <c r="C9" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>195</v>
-      </c>
+      <c r="D9" s="64"/>
       <c r="E9" s="64"/>
       <c r="F9" s="63" t="s">
         <v>183</v>
@@ -9150,7 +9146,7 @@
       <c r="I9" s="63"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="80" t="s">
         <v>209</v>
       </c>
       <c r="C10" s="64"/>
@@ -9228,7 +9224,7 @@
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="81" t="s">
         <v>213</v>
       </c>
       <c r="G16" s="76"/>
@@ -9246,20 +9242,20 @@
       <c r="I17" s="76"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="138" t="s">
+      <c r="C18" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138" t="s">
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="2:9" s="77" customFormat="1" ht="15.75" customHeight="1">
       <c r="B19" s="75" t="s">
@@ -9286,15 +9282,15 @@
       <c r="I20" s="76"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9318,7 +9314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9332,7 +9328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9985,20 +9981,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -10013,16 +10009,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -10033,44 +10029,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -10103,12 +10099,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -10133,10 +10129,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -10457,7 +10453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11110,20 +11106,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -11138,16 +11134,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -11158,44 +11154,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -11228,12 +11224,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -11258,10 +11254,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="23.25" customHeight="1">
       <c r="A7" s="16">
@@ -11532,7 +11528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12184,20 +12180,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -12212,16 +12208,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -12232,44 +12228,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -12302,12 +12298,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -12332,10 +12328,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -12632,7 +12628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13284,20 +13280,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -13312,16 +13308,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -13332,44 +13328,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -13402,12 +13398,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -13432,10 +13428,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -13707,7 +13703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14359,20 +14355,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -14387,16 +14383,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -14407,44 +14403,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -14477,12 +14473,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -14507,10 +14503,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -14851,7 +14847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -15507,20 +15503,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -15535,16 +15531,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -15555,44 +15551,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -15625,12 +15621,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -15655,10 +15651,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -15906,7 +15902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16559,20 +16555,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -16587,16 +16583,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -16607,44 +16603,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -16677,12 +16673,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -16707,10 +16703,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
@@ -17005,7 +17001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17658,20 +17654,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
@@ -17686,16 +17682,16 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -17706,44 +17702,44 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -17776,12 +17772,12 @@
       <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="12">
@@ -17806,10 +17802,10 @@
       <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="16">
